--- a/Results/seminar_results.xlsx
+++ b/Results/seminar_results.xlsx
@@ -5,21 +5,21 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thani\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thani\Dropbox\R_pc_github\Quant-Finance-Seminar\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523A6B82-2F57-4B1A-9ECD-B0F88AF780FB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376A884F-BBF9-4634-B2CC-165D0251FB9F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6480" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sp" sheetId="3" r:id="rId1"/>
-    <sheet name="rds" sheetId="4" r:id="rId2"/>
-    <sheet name="ing" sheetId="5" r:id="rId3"/>
+    <sheet name="gold" sheetId="5" r:id="rId2"/>
+    <sheet name="rds" sheetId="4" r:id="rId3"/>
     <sheet name="aex" sheetId="7" r:id="rId4"/>
     <sheet name="h_day" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="32">
   <si>
     <t>Cond. GARCH EVT</t>
   </si>
@@ -98,35 +98,48 @@
     <t>G evt sp</t>
   </si>
   <si>
-    <t>G EVT rds</t>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TG EVT rds</t>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EG EVT rds</t>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>G EVT aex</t>
+    <t>n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TG EVT aex</t>
+    <t>n</t>
   </si>
   <si>
-    <t>EG evt aex</t>
+    <t>S&amp;P</t>
   </si>
   <si>
-    <t>G EVT ing</t>
+    <t>rds</t>
   </si>
   <si>
-    <t>TG EVT ing</t>
+    <t>aex</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>sqrt h rule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -151,6 +164,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -169,10 +191,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -193,8 +216,15 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -472,11 +502,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C711DE18-B86C-4AC0-8094-CFD0C474FBD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" activeCellId="2" sqref="B2 B15 B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -590,13 +620,13 @@
       <c r="B6" s="2">
         <v>383</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="6">
         <v>0.5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>0.16</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="6">
         <v>0.3</v>
       </c>
       <c r="I6" s="1"/>
@@ -610,13 +640,13 @@
       <c r="B7" s="2">
         <v>367</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="6">
         <v>0.86</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>0.36</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="6">
         <v>0.65</v>
       </c>
     </row>
@@ -627,13 +657,13 @@
       <c r="B8" s="2">
         <v>366</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="6">
         <v>0.82</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>0.82</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="6">
         <v>0.95</v>
       </c>
     </row>
@@ -644,13 +674,13 @@
       <c r="B9" s="2">
         <v>405</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6">
         <v>0.53</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="6">
         <v>0.15</v>
       </c>
     </row>
@@ -661,13 +691,13 @@
       <c r="B10" s="2">
         <v>402</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="6">
         <v>0.1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>0.79</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="6">
         <v>0.24</v>
       </c>
     </row>
@@ -678,13 +708,13 @@
       <c r="B11" s="2">
         <v>396</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="6">
         <v>0.17</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>0.85</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
         <v>0.39</v>
       </c>
     </row>
@@ -695,13 +725,13 @@
       <c r="B12" s="2">
         <v>402</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="6">
         <v>0.1</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -797,13 +827,13 @@
       <c r="B19" s="2">
         <v>108</v>
       </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
         <v>0.62</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -814,13 +844,13 @@
       <c r="B20" s="2">
         <v>104</v>
       </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
         <v>0.68</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -831,13 +861,13 @@
       <c r="B21" s="2">
         <v>107</v>
       </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
         <v>0.63</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -848,13 +878,13 @@
       <c r="B22" s="2">
         <v>78</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="6">
         <v>0.65</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="6">
         <v>0.85</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="6">
         <v>0.88</v>
       </c>
     </row>
@@ -865,13 +895,13 @@
       <c r="B23" s="2">
         <v>87</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="6">
         <v>0.98</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="6">
         <v>0.34</v>
       </c>
     </row>
@@ -882,13 +912,13 @@
       <c r="B24" s="2">
         <v>89</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="6">
         <v>0.09</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="6">
         <v>0.95</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="6">
         <v>0.24</v>
       </c>
     </row>
@@ -899,13 +929,13 @@
       <c r="B25" s="2">
         <v>85</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="6">
         <v>0.21</v>
       </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1006,13 +1036,13 @@
       <c r="B32" s="2">
         <v>62</v>
       </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="H32" s="1"/>
@@ -1028,13 +1058,13 @@
       <c r="B33" s="2">
         <v>65</v>
       </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
         <v>0.6</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1045,13 +1075,13 @@
       <c r="B34" s="2">
         <v>65</v>
       </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
         <v>0.6</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1062,13 +1092,13 @@
       <c r="B35" s="2">
         <v>45</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="6">
         <v>0.2</v>
       </c>
-      <c r="D35" s="2">
+      <c r="D35" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="6">
         <v>0.25</v>
       </c>
     </row>
@@ -1079,13 +1109,13 @@
       <c r="B36" s="2">
         <v>44</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="6">
         <v>0.26</v>
       </c>
-      <c r="D36" s="2">
+      <c r="D36" s="6">
         <v>0.27</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="6">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -1096,13 +1126,13 @@
       <c r="B37" s="2">
         <v>47</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="6">
         <v>0.12</v>
       </c>
-      <c r="D37" s="2">
+      <c r="D37" s="6">
         <v>0.31</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="6">
         <v>0.17</v>
       </c>
     </row>
@@ -1113,13 +1143,13 @@
       <c r="B38" s="2">
         <v>48</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="6">
         <v>0.08</v>
       </c>
-      <c r="D38" s="2">
+      <c r="D38" s="6">
         <v>0.04</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="6">
         <v>0.03</v>
       </c>
     </row>
@@ -1130,11 +1160,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897F0043-52FE-4075-A00E-883E9E131FB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B28" activeCellId="2" sqref="B2 B15 B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1166,7 +1196,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>240</v>
+        <v>539</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1176,54 +1206,53 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
-        <v>247</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.62074743499999996</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.51481169800000004</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.71566249599999998</v>
-      </c>
+      <c r="B3" s="2">
+        <v>523</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.48016734956931895</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.12744603290340806</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.24392070349390638</v>
+      </c>
+      <c r="F3" s="8"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>244</v>
-      </c>
-      <c r="C4">
-        <v>0.76612099300000003</v>
-      </c>
-      <c r="D4">
-        <v>0.116420886</v>
-      </c>
-      <c r="E4">
-        <v>0.27897027299999999</v>
-      </c>
-      <c r="F4" s="3"/>
+      <c r="B4" s="2">
+        <v>536</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.89792906341220857</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7.6816672748614145E-5</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3.9931407648174932E-4</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>244</v>
-      </c>
-      <c r="C5">
-        <v>0.76612099300000003</v>
-      </c>
-      <c r="D5">
-        <v>0.116420886</v>
-      </c>
-      <c r="E5">
-        <v>0.27897027299999999</v>
-      </c>
-      <c r="F5" s="3"/>
+      <c r="B5" s="2">
+        <v>532</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.75992972599999997</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.1664899999999999E-4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1.020843E-3</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1235,35 +1264,34 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>251</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1"/>
+        <v>437</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>245</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.73</v>
+        <v>451</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1271,16 +1299,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>246</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.43</v>
+        <v>444</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1288,16 +1316,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>275</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.05</v>
+        <v>500</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.06</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1305,16 +1333,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>262</v>
-      </c>
-      <c r="C10" s="2">
+        <v>506</v>
+      </c>
+      <c r="C10" s="6">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D10" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.26</v>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1322,16 +1350,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>281</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.01</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.02</v>
+        <v>522</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1339,15 +1367,15 @@
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>237</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
+        <v>516</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.31</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1355,7 +1383,6 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -1376,14 +1403,13 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="2">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1391,61 +1417,60 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="3">
-        <v>50</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.76205189100000004</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.55217545499999998</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.80046916899999998</v>
-      </c>
+      <c r="B16" s="2">
+        <v>97</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.28842743448367802</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.29697847156313617</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0.3304400045486876</v>
+      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
-        <v>50</v>
-      </c>
-      <c r="C17">
-        <v>0.76205189100000004</v>
-      </c>
-      <c r="D17">
-        <v>0.55217545499999998</v>
-      </c>
-      <c r="E17">
-        <v>0.80046916899999998</v>
+      <c r="B17" s="2">
+        <v>103</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.64107621531975467</v>
+      </c>
+      <c r="D17" s="6">
+        <v>9.8151464420878853E-2</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.22847425376976105</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>0.76205189100000004</v>
-      </c>
-      <c r="D18">
-        <v>0.11338269500000001</v>
-      </c>
-      <c r="E18">
-        <v>0.272789752</v>
+      <c r="B18" s="2">
+        <v>106</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.86281504499999995</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.40010901700000001</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.69147531200000001</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1453,15 +1478,15 @@
         <v>3</v>
       </c>
       <c r="B19" s="2">
-        <v>81</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
+        <v>150</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.95</v>
+      </c>
+      <c r="E19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1470,15 +1495,15 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>80</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="E20" s="2">
+        <v>162</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1487,15 +1512,15 @@
         <v>5</v>
       </c>
       <c r="B21" s="2">
-        <v>82</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E21" s="2">
+        <v>163</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1504,16 +1529,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>64</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.08</v>
+        <v>100</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.47</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1521,16 +1546,16 @@
         <v>7</v>
       </c>
       <c r="B23" s="2">
-        <v>61</v>
-      </c>
-      <c r="C23" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.1</v>
+        <v>111</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.33</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1538,48 +1563,48 @@
         <v>8</v>
       </c>
       <c r="B24" s="2">
-        <v>76</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="E24" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="2">
-        <v>72</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.91</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12">
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
@@ -1597,17 +1622,17 @@
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="2">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1617,52 +1642,53 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="3">
-        <v>29</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.31674299900000003</v>
-      </c>
-      <c r="D29" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" s="3" t="e">
-        <v>#N/A</v>
+      <c r="B29" s="2">
+        <v>50</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.59072195366944458</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.23511467518468498</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0.4276570922340438</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B30">
-        <v>28</v>
-      </c>
-      <c r="C30">
-        <v>0.41916007799999999</v>
-      </c>
-      <c r="D30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" t="e">
-        <v>#N/A</v>
+      <c r="B30" s="2">
+        <v>51</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.69043928526000165</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.24552705360306282</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0.47067211290427513</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31">
-        <v>27</v>
-      </c>
-      <c r="C31">
-        <v>0.54037049800000003</v>
-      </c>
-      <c r="D31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" t="e">
-        <v>#N/A</v>
-      </c>
+      <c r="B31" s="2">
+        <v>56</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.77464237899999999</v>
+      </c>
+      <c r="D31" s="6">
+        <v>3.5987627000000001E-2</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0.106476444</v>
+      </c>
+      <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12">
@@ -1670,17 +1696,18 @@
         <v>3</v>
       </c>
       <c r="B32" s="2">
-        <v>54</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="E32" s="2">
-        <v>0</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.376</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:5">
@@ -1688,15 +1715,15 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>53</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E33" s="2">
+        <v>112</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="E33" s="6">
         <v>0</v>
       </c>
     </row>
@@ -1705,16 +1732,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="2">
-        <v>53</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>18</v>
+        <v>105</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1722,16 +1749,16 @@
         <v>6</v>
       </c>
       <c r="B35" s="2">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>18</v>
+        <v>49</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.38</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1739,16 +1766,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="2">
-        <v>33</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>18</v>
+        <v>56</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1756,16 +1783,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="2">
-        <v>42</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>58</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.53</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1773,29 +1800,30 @@
         <v>9</v>
       </c>
       <c r="B38" s="2">
-        <v>43</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
+        <v>63</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C922746-288F-4E3C-A2ED-62FECE2BBA7B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B28" activeCellId="2" sqref="B2 B15 B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1827,7 +1855,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1837,44 +1865,54 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>230</v>
-      </c>
-      <c r="C3">
-        <v>0.52619739399999998</v>
-      </c>
-      <c r="D3">
-        <v>0.737208317</v>
-      </c>
-      <c r="E3">
-        <v>0.77324252900000001</v>
+      <c r="B3" s="5">
+        <v>247</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0.62074743499999996</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.51481169800000004</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0.71566249599999998</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>232</v>
-      </c>
-      <c r="C4">
-        <v>0.61727968200000005</v>
-      </c>
-      <c r="D4">
-        <v>0.46851153899999998</v>
-      </c>
-      <c r="E4">
-        <v>0.67868583599999999</v>
-      </c>
+      <c r="B4" s="5">
+        <v>244</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.76612099300000003</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.116420886</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.27897027299999999</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="5">
+        <v>244</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.76612099300000003</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.116420886</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.27897027299999999</v>
+      </c>
+      <c r="F5" s="3"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -1886,60 +1924,69 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>241</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.92</v>
-      </c>
-      <c r="D6" s="2">
+        <v>251</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.45</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.81</v>
+      </c>
+      <c r="E6" s="6">
         <v>0.73</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.94</v>
-      </c>
-      <c r="K6" s="1"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>233</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.83</v>
+        <v>245</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.48</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.73</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="B8" s="2">
+        <v>246</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>258</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.23</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E9" s="2">
+        <v>275</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D9" s="6">
         <v>0.41</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1947,49 +1994,57 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>248</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.73</v>
+        <v>262</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="2">
+        <v>281</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.52</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>240</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
+        <v>237</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
@@ -2007,10 +2062,10 @@
       <c r="E14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
@@ -2022,73 +2077,81 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16">
-        <v>55</v>
-      </c>
-      <c r="C16">
-        <v>0.31380798599999998</v>
-      </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="B16" s="5">
+        <v>50</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0.76205189100000004</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.55217545499999998</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.80046916899999998</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
-        <v>47</v>
-      </c>
-      <c r="C17">
-        <v>0.89569398300000003</v>
-      </c>
-      <c r="D17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E17" t="e">
-        <v>#N/A</v>
+      <c r="B17" s="2">
+        <v>50</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.76205189100000004</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.55217545499999998</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.80046916899999998</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="2">
+        <v>50</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.76205189100000004</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.11338269500000001</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.272789752</v>
+      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="2">
-        <v>80</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>18</v>
+        <v>81</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -2096,42 +2159,50 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>81</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>80</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="2">
+        <v>82</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>65</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>18</v>
+        <v>64</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.08</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2139,57 +2210,65 @@
         <v>7</v>
       </c>
       <c r="B23" s="2">
-        <v>59</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>18</v>
+        <v>61</v>
+      </c>
+      <c r="C23" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="G24" s="2"/>
+      <c r="B24" s="2">
+        <v>76</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="2">
-        <v>66</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
@@ -2207,10 +2286,10 @@
       <c r="E27" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
@@ -2227,45 +2306,52 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29">
-        <v>24</v>
-      </c>
-      <c r="C29">
-        <v>0.99183064200000004</v>
-      </c>
-      <c r="D29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" t="e">
-        <v>#N/A</v>
+      <c r="B29" s="5">
+        <v>29</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0.31674299900000003</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B30">
-        <v>25</v>
-      </c>
-      <c r="C30">
-        <v>0.83089290199999999</v>
-      </c>
-      <c r="D30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" t="e">
-        <v>#N/A</v>
+      <c r="B30" s="2">
+        <v>28</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.41916007799999999</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="K31" s="1"/>
+      <c r="B31" s="2">
+        <v>27</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0.54037049800000003</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12">
@@ -2273,18 +2359,17 @@
         <v>3</v>
       </c>
       <c r="B32" s="2">
-        <v>64</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:5">
@@ -2292,41 +2377,49 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>54</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>18</v>
+        <v>53</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="B34" s="2">
+        <v>53</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B35" s="2">
-        <v>31</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="D35" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.12</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2335,15 +2428,15 @@
         <v>7</v>
       </c>
       <c r="B36" s="2">
-        <v>27</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.54</v>
-      </c>
-      <c r="D36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2351,25 +2444,33 @@
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="B37" s="2">
+        <v>42</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="2">
-        <v>33</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
+        <v>43</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2379,11 +2480,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B738AF27-1691-4EAD-B708-DFF07AAE56AD}">
-  <dimension ref="A1:L38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B28" activeCellId="2" sqref="B2 B15 B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2426,16 +2527,16 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="5">
         <v>248</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>0.62381905800000004</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>0.359587669</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>0.58278641200000003</v>
       </c>
     </row>
@@ -2443,16 +2544,16 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>248</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>0.62381905840876772</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>0.81547371090050413</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>0.86286327206249125</v>
       </c>
     </row>
@@ -2460,16 +2561,16 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>258</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>0.25366170399999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>0.81062979599999996</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>0.50650603400000005</v>
       </c>
       <c r="F5" s="3"/>
@@ -2484,16 +2585,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>251</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.45</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.73</v>
+        <v>285</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.01</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -2502,16 +2603,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>245</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.72</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.48</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.73</v>
+        <v>261</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.74</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.39</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2519,16 +2620,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>246</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.67</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.43</v>
+        <v>277</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.02</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.79</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2536,16 +2637,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>275</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.02</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.41</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.05</v>
+        <v>298</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.39</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2553,16 +2654,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>262</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.26</v>
+        <v>273</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.09</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2570,16 +2671,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>281</v>
-      </c>
-      <c r="C11" s="2">
+        <v>289</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="E11" s="6">
         <v>0.01</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.02</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2587,19 +2688,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="2">
-        <v>237</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="2">
+        <v>242</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.93</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11">
+      <c r="B13" s="2"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2612,13 +2717,13 @@
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H14" s="2"/>
@@ -2633,9 +2738,9 @@
       <c r="B15" s="2">
         <v>48</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2645,17 +2750,17 @@
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>52</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>0.57795099599999999</v>
       </c>
-      <c r="D16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E16" t="e">
-        <v>#N/A</v>
+      <c r="D16" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -2666,34 +2771,34 @@
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>56</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>0.26516665432252895</v>
       </c>
-      <c r="D17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E17" t="e">
-        <v>#N/A</v>
+      <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>58</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>0.16507680599999999</v>
       </c>
-      <c r="D18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E18" t="e">
-        <v>#N/A</v>
+      <c r="D18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2701,15 +2806,15 @@
         <v>3</v>
       </c>
       <c r="B19" s="2">
-        <v>81</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
+        <v>87</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="E19" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2718,15 +2823,15 @@
         <v>4</v>
       </c>
       <c r="B20" s="2">
-        <v>80</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="E20" s="2">
+        <v>82</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.72</v>
+      </c>
+      <c r="E20" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2735,15 +2840,15 @@
         <v>5</v>
       </c>
       <c r="B21" s="2">
-        <v>82</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="E21" s="2">
+        <v>88</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="E21" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2752,16 +2857,16 @@
         <v>6</v>
       </c>
       <c r="B22" s="2">
-        <v>64</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.08</v>
+        <v>71</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -2769,16 +2874,16 @@
         <v>7</v>
       </c>
       <c r="B23" s="2">
-        <v>61</v>
-      </c>
-      <c r="C23" s="2">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0.1</v>
+        <v>68</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -2786,15 +2891,15 @@
         <v>8</v>
       </c>
       <c r="B24" s="2">
-        <v>76</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="E24" s="2">
+        <v>79</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="E24" s="6">
         <v>0</v>
       </c>
       <c r="H24" s="2"/>
@@ -2807,15 +2912,15 @@
         <v>9</v>
       </c>
       <c r="B25" s="2">
-        <v>72</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
+        <v>61</v>
+      </c>
+      <c r="C25" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
         <v>0</v>
       </c>
       <c r="H25" s="2"/>
@@ -2824,6 +2929,10 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:12">
+      <c r="B26" s="2"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2836,13 +2945,13 @@
       <c r="B27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="6" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="2"/>
@@ -2857,59 +2966,59 @@
       <c r="B28" s="2">
         <v>24</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>0.43197648199999999</v>
       </c>
-      <c r="D29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E29" t="e">
-        <v>#N/A</v>
+      <c r="D29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>28</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>0.43197648151580403</v>
       </c>
-      <c r="D30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E30" t="e">
-        <v>#N/A</v>
+      <c r="D30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>33</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>8.3594418000000004E-2</v>
       </c>
-      <c r="D31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E31" t="e">
-        <v>#N/A</v>
+      <c r="D31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="L31" s="1"/>
     </row>
@@ -2918,15 +3027,15 @@
         <v>3</v>
       </c>
       <c r="B32" s="2">
-        <v>54</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="E32" s="2">
+        <v>57</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="E32" s="6">
         <v>0</v>
       </c>
       <c r="L32" s="1"/>
@@ -2936,16 +3045,16 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>53</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2953,16 +3062,16 @@
         <v>5</v>
       </c>
       <c r="B34" s="2">
-        <v>53</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>18</v>
+        <v>63</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.85</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2970,16 +3079,16 @@
         <v>6</v>
       </c>
       <c r="B35" s="2">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2987,16 +3096,16 @@
         <v>7</v>
       </c>
       <c r="B36" s="2">
-        <v>33</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3004,16 +3113,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="2">
-        <v>42</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>48</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3021,17 +3130,23 @@
         <v>9</v>
       </c>
       <c r="B38" s="2">
-        <v>43</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3039,301 +3154,632 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87777E13-7C99-4BC3-B68E-F8352628D38B}">
-  <dimension ref="A1:N15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>370</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>241</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>241</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <v>539</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C3" s="2">
+        <v>415</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4.3312574E-2</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5">
+        <v>235</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.86306933500000005</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <v>179</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.48253226399999999</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <v>382</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.14669242738933452</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C4" s="5">
+        <v>358</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6.7624584000000001E-2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>196</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.72775942400000004</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>95</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.47340124608670997</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <v>451</v>
+      </c>
+      <c r="M4" s="6">
+        <v>6.5822905632346718E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C5" s="5">
+        <v>374</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6.8279500000000002E-3</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>214</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.84283375699999996</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <v>111</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.70697080499999998</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <v>552</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.19901892500000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>547</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.1823653995056702E-12</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>261</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.2692304208405947E-3</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>173</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.59623134665625477</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
+        <v>423</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2.5903149293944883E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2">
+        <v>643</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.15415562569035057</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>254</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.28810464993143081</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>302</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.98665981386393586</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <v>575</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.59454384808304517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="C8" s="2"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="6"/>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>48</v>
+      </c>
+      <c r="I10" s="2">
+        <v>48</v>
+      </c>
+      <c r="L10" s="2">
+        <v>108</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2">
+        <v>103</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7.3425592999999997E-2</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5">
+        <v>37</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>25</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <v>36</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5">
+        <v>100</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.59751638399999996</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>34</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="2">
+        <v>6</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="2">
+        <v>82</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="5">
+        <v>105</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2.1011173000000001E-2</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>39</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
+        <v>108</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>225</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6.7242489016683393E-5</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>85</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.65222151825393548</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <v>19</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
+        <v>129</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.72330960628535357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2">
+        <v>203</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.21915291644497781</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>64</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
+        <v>100</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.3925871379563215</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
+        <v>111</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2">
+        <v>24</v>
+      </c>
+      <c r="L18" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="2">
+        <v>69</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.67820488099999998</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5">
+        <v>23</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
+        <v>11</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
+        <v>13</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="5">
+        <v>56</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>17</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
+        <v>40</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5">
+        <v>63</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
         <v>22</v>
       </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2">
-        <v>415</v>
-      </c>
-      <c r="B2" s="4">
-        <v>358</v>
-      </c>
-      <c r="C2" s="4">
-        <v>374</v>
-      </c>
-      <c r="E2" s="4">
-        <v>235</v>
-      </c>
-      <c r="F2">
-        <v>196</v>
-      </c>
-      <c r="G2">
-        <v>214</v>
-      </c>
-      <c r="I2">
-        <v>179</v>
-      </c>
-      <c r="J2">
-        <v>95</v>
-      </c>
-      <c r="K2">
-        <v>111</v>
-      </c>
-      <c r="M2">
-        <v>161</v>
-      </c>
-      <c r="N2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3">
-        <v>4.3312574E-2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>6.7624584000000001E-2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>6.8279500000000002E-3</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.86306933500000005</v>
-      </c>
-      <c r="F3">
-        <v>0.72775942400000004</v>
-      </c>
-      <c r="G3">
-        <v>0.84283375699999996</v>
-      </c>
-      <c r="I3">
-        <v>0.48253226399999999</v>
-      </c>
-      <c r="J3">
-        <v>0.47340124608670997</v>
-      </c>
-      <c r="K3">
-        <v>0.70697080499999998</v>
-      </c>
-      <c r="M3">
-        <v>1.6792983000000001E-2</v>
-      </c>
-      <c r="N3">
-        <v>0.31078492299999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8">
-        <v>103</v>
-      </c>
-      <c r="B8" s="3">
-        <v>100</v>
-      </c>
-      <c r="C8" s="3">
-        <v>105</v>
-      </c>
-      <c r="E8" s="3">
-        <v>37</v>
-      </c>
-      <c r="F8">
-        <v>34</v>
-      </c>
-      <c r="G8">
-        <v>39</v>
-      </c>
-      <c r="I8">
-        <v>25</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8">
-        <v>10</v>
-      </c>
-      <c r="M8">
-        <v>20</v>
-      </c>
-      <c r="N8">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9">
-        <v>7.3425592999999997E-2</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.59751638399999996</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2.1011173000000001E-2</v>
-      </c>
-      <c r="E9" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N9" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14">
-        <v>69</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="G21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>4</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
+        <v>57</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2">
+        <v>168</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5.413247352514805E-4</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
         <v>56</v>
       </c>
-      <c r="C14" s="3">
-        <v>63</v>
-      </c>
-      <c r="E14" s="3">
-        <v>23</v>
-      </c>
-      <c r="F14">
-        <v>17</v>
-      </c>
-      <c r="G14">
-        <v>22</v>
-      </c>
-      <c r="I14">
-        <v>11</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <v>11</v>
-      </c>
-      <c r="N14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15">
-        <v>0.67820488099999998</v>
-      </c>
-      <c r="B15" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="C15" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E15" s="3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="F15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="N15" t="e">
-        <v>#N/A</v>
+      <c r="G22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <v>13</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2">
+        <v>94</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.84690702284591701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" s="2">
+        <v>140</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.66804150851764676</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>40</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2">
+        <v>59</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="2">
+        <v>67</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="O28" s="2"/>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="9" t="str">
+        <f>C3 &amp; "  " &amp; "(" &amp; D3 &amp; ")"</f>
+        <v>415  (0.043312574)</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/seminar_results.xlsx
+++ b/Results/seminar_results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thani\Dropbox\R_pc_github\Quant-Finance-Seminar\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/Repositories/Quant-Finance-Seminar/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376A884F-BBF9-4634-B2CC-165D0251FB9F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="6480" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="sp" sheetId="3" r:id="rId1"/>
@@ -19,8 +18,11 @@
     <sheet name="aex" sheetId="7" r:id="rId4"/>
     <sheet name="h_day" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -135,17 +137,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -502,21 +503,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" activeCellId="2" sqref="B2 B15 B28"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -533,7 +534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -544,7 +545,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +562,7 @@
         <v>0.73079455199999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -578,7 +579,7 @@
         <v>0.80087837399999995</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -613,7 +614,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -633,7 +634,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -650,7 +651,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -667,7 +668,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -684,7 +685,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -701,7 +702,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -718,7 +719,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -735,13 +736,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -758,7 +759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -769,7 +770,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +787,7 @@
         <v>0.91656326899999996</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -803,7 +804,7 @@
         <v>0.39681062900000003</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -820,7 +821,7 @@
         <v>0.238754719</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -837,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -854,7 +855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -871,7 +872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,7 +889,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -905,7 +906,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,7 +923,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -939,13 +940,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -962,7 +963,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -973,7 +974,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,7 +991,7 @@
         <v>0.32949495200000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>8.3031912999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +1030,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1052,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1160,21 +1161,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" activeCellId="2" sqref="B2 B15 B28"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1202,7 +1203,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1220,7 +1221,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1237,7 +1238,7 @@
         <v>3.9931407648174932E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1259,7 +1260,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1277,7 +1278,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1328,7 +1329,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1379,12 +1380,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1404,7 +1405,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1418,7 +1419,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1440,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>0.22847425376976105</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>0.69147531200000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1507,7 +1508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1524,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1541,7 +1542,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1558,7 +1559,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1579,7 +1580,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1600,13 +1601,13 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1627,7 +1628,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1638,7 +1639,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>0.4276570922340438</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1672,7 +1673,7 @@
         <v>0.47067211290427513</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1691,7 +1692,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1710,7 +1711,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1727,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1744,7 +1745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1819,21 +1820,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" activeCellId="2" sqref="B2 B15 B28"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1850,7 +1851,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1861,7 +1862,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>0.71566249599999998</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1919,7 +1920,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1938,7 +1939,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1972,7 +1973,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1989,7 +1990,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2006,7 +2007,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2023,7 +2024,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2040,13 +2041,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2067,7 +2068,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2082,7 +2083,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2103,7 +2104,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>0.80046916899999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>0.272789752</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2154,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -2222,7 +2223,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2243,7 +2244,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -2264,13 +2265,13 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -2291,7 +2292,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -2302,7 +2303,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2336,7 +2337,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2354,7 +2355,7 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -2372,7 +2373,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -2480,21 +2481,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" activeCellId="2" sqref="B2 B15 B28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2512,7 +2513,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2523,7 +2524,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2540,7 +2541,7 @@
         <v>0.58278641200000003</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>0.86286327206249125</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2580,7 +2581,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2598,7 +2599,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2615,7 +2616,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2632,7 +2633,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2666,7 +2667,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2700,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2710,7 +2711,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2731,7 +2732,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2746,7 +2747,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2767,7 +2768,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2907,7 +2908,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -2928,7 +2929,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2938,7 +2939,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -2959,7 +2960,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -2970,7 +2971,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2987,7 +2988,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -3022,7 +3023,7 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -3040,7 +3041,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3057,7 +3058,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3074,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -3091,7 +3092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -3108,7 +3109,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3154,16 +3155,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3180,7 +3181,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3190,7 +3191,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -3204,7 +3205,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3236,7 +3237,7 @@
         <v>0.14669242738933452</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -3268,7 +3269,7 @@
         <v>6.5822905632346718E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>0.19901892500000001</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3332,7 +3333,7 @@
         <v>2.5903149293944883E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -3364,7 +3365,7 @@
         <v>0.59454384808304517</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
@@ -3377,7 +3378,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="6"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3393,7 +3394,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3415,7 +3416,7 @@
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -3449,7 +3450,7 @@
       </c>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -3482,7 +3483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -3514,7 +3515,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3547,7 +3548,7 @@
         <v>0.72330960628535357</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -3579,13 +3580,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3634,7 +3635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -3667,7 +3668,7 @@
       </c>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3699,7 +3700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -3731,7 +3732,7 @@
         <v>0.84690702284591701</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -3763,16 +3764,16 @@
       </c>
       <c r="Q23" s="2"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O28" s="2"/>
     </row>
-    <row r="41" spans="3:3">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="9" t="str">
         <f>C3 &amp; "  " &amp; "(" &amp; D3 &amp; ")"</f>
         <v>415  (0.043312574)</v>

--- a/Results/seminar_results.xlsx
+++ b/Results/seminar_results.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/Repositories/Quant-Finance-Seminar/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thani\Dropbox\R\Github\Quant-Finance-Seminar\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403ECB84-421E-46E2-9464-12157B653B60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sp" sheetId="3" r:id="rId1"/>
@@ -17,8 +18,9 @@
     <sheet name="rds" sheetId="4" r:id="rId3"/>
     <sheet name="aex" sheetId="7" r:id="rId4"/>
     <sheet name="h_day" sheetId="6" r:id="rId5"/>
+    <sheet name="jpm" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="28">
   <si>
     <t>Cond. GARCH EVT</t>
   </si>
@@ -87,10 +89,6 @@
     <t>Cond. Cov</t>
   </si>
   <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EG EVT SP</t>
   </si>
   <si>
@@ -98,25 +96,6 @@
   </si>
   <si>
     <t>G evt sp</t>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n</t>
   </si>
   <si>
     <t>S&amp;P</t>
@@ -133,29 +112,26 @@
   <si>
     <t>sqrt h rule</t>
   </si>
+  <si>
+    <t>jpm</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,9 +170,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -204,25 +180,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -503,21 +482,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -534,7 +513,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -545,7 +524,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -562,7 +541,7 @@
         <v>0.73079455199999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -579,7 +558,7 @@
         <v>0.80087837399999995</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -614,7 +593,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -634,7 +613,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -651,7 +630,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -668,7 +647,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -685,7 +664,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -702,7 +681,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -719,7 +698,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -736,13 +715,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -759,7 +738,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -770,7 +749,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -787,7 +766,7 @@
         <v>0.91656326899999996</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -804,7 +783,7 @@
         <v>0.39681062900000003</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -821,7 +800,7 @@
         <v>0.238754719</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -838,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -855,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -872,7 +851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,7 +868,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,7 +885,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -923,7 +902,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -940,13 +919,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -963,7 +942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -974,7 +953,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +970,7 @@
         <v>0.32949495200000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1008,7 +987,7 @@
         <v>8.3031912999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1030,7 +1009,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1052,7 +1031,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1069,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +1082,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -1120,7 +1099,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1137,7 +1116,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1161,21 +1140,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1192,7 +1171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1203,7 +1182,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1221,7 +1200,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1238,7 +1217,7 @@
         <v>3.9931407648174932E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1260,7 +1239,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1278,7 +1257,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1308,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1346,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1363,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1380,12 +1359,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1405,7 +1384,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1419,7 +1398,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1440,7 +1419,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1457,7 +1436,7 @@
         <v>0.22847425376976105</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1474,7 +1453,7 @@
         <v>0.69147531200000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1491,7 +1470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1508,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1525,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1542,7 +1521,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1559,7 +1538,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1580,7 +1559,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1601,13 +1580,13 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1628,7 +1607,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1639,7 +1618,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1656,7 +1635,7 @@
         <v>0.4276570922340438</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1673,7 +1652,7 @@
         <v>0.47067211290427513</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1692,7 +1671,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1711,7 +1690,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1728,7 +1707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1745,7 +1724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1762,7 +1741,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -1779,7 +1758,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1796,7 +1775,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1820,21 +1799,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1851,7 +1830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1862,7 +1841,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1879,7 +1858,7 @@
         <v>0.71566249599999998</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1897,7 +1876,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1920,7 +1899,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1939,7 +1918,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1956,7 +1935,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1973,7 +1952,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1990,7 +1969,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2007,7 +1986,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2024,7 +2003,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2041,13 +2020,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2068,7 +2047,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2083,7 +2062,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2104,7 +2083,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2121,7 +2100,7 @@
         <v>0.80046916899999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2138,7 +2117,7 @@
         <v>0.272789752</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2155,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2172,7 +2151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2189,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -2206,7 +2185,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -2223,7 +2202,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2244,7 +2223,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -2265,13 +2244,13 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -2292,7 +2271,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -2303,7 +2282,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2313,14 +2292,14 @@
       <c r="C29" s="7">
         <v>0.31674299900000003</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2331,13 +2310,13 @@
         <v>0.41916007799999999</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2348,14 +2327,14 @@
         <v>0.54037049800000003</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -2373,7 +2352,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2390,7 +2369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2401,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2418,13 +2397,13 @@
         <v>0.12</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -2435,13 +2414,13 @@
         <v>0.08</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -2452,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -2481,21 +2460,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2513,7 +2492,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2524,7 +2503,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2541,7 +2520,7 @@
         <v>0.58278641200000003</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2558,7 +2537,7 @@
         <v>0.86286327206249125</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2581,7 +2560,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2599,7 +2578,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2616,7 +2595,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2633,7 +2612,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2650,7 +2629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2667,7 +2646,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2684,7 +2663,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2701,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2711,7 +2690,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2732,7 +2711,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2747,7 +2726,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2758,17 +2737,17 @@
         <v>0.57795099599999999</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2779,13 +2758,13 @@
         <v>0.26516665432252895</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2796,13 +2775,13 @@
         <v>0.16507680599999999</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2819,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2836,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2853,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -2870,7 +2849,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -2881,13 +2860,13 @@
         <v>0.01</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2908,7 +2887,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -2929,7 +2908,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2939,7 +2918,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -2960,7 +2939,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -2971,7 +2950,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2982,13 +2961,13 @@
         <v>0.43197648199999999</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2999,13 +2978,13 @@
         <v>0.43197648151580403</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -3016,14 +2995,14 @@
         <v>8.3594418000000004E-2</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -3041,7 +3020,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3052,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3075,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -3086,13 +3065,13 @@
         <v>0.01</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -3103,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -3120,13 +3099,13 @@
         <v>0</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3143,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3155,33 +3134,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3205,9 +3187,9 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2">
         <v>415</v>
@@ -3237,9 +3219,9 @@
         <v>0.14669242738933452</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5">
         <v>358</v>
@@ -3268,10 +3250,16 @@
       <c r="M4" s="6">
         <v>6.5822905632346718E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O4" s="2">
+        <v>219</v>
+      </c>
+      <c r="P4" s="2">
+        <v>0.85848730664085759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="5">
         <v>374</v>
@@ -3300,8 +3288,10 @@
       <c r="M5" s="6">
         <v>0.19901892500000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3332,10 +3322,12 @@
       <c r="M6" s="6">
         <v>2.5903149293944883E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>643</v>
@@ -3364,8 +3356,10 @@
       <c r="M7" s="6">
         <v>0.59454384808304517</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
       <c r="E8" s="2"/>
@@ -3377,8 +3371,10 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="6"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -3393,8 +3389,10 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -3412,13 +3410,15 @@
       <c r="L10" s="2">
         <v>108</v>
       </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="2">
@@ -3431,28 +3431,30 @@
       <c r="F11" s="5">
         <v>37</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>26</v>
+      <c r="G11" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2">
         <v>25</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2">
         <v>36</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="5">
@@ -3466,26 +3468,32 @@
         <v>34</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="2">
         <v>6</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="2">
         <v>82</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="O12" s="2">
+        <v>33</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="5">
         <v>105</v>
@@ -3498,24 +3506,26 @@
         <v>39</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2">
         <v>10</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="2">
         <v>108</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3538,7 +3548,7 @@
         <v>19</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2">
@@ -3547,10 +3557,12 @@
       <c r="M14" s="6">
         <v>0.72330960628535357</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <v>203</v>
@@ -3563,7 +3575,7 @@
         <v>64</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2">
@@ -3577,16 +3589,24 @@
         <v>111</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3602,10 +3622,12 @@
       <c r="L18" s="2">
         <v>54</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
         <v>69</v>
@@ -3617,90 +3639,98 @@
       <c r="F19" s="5">
         <v>23</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>26</v>
+      <c r="G19" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2">
         <v>11</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="2">
         <v>13</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="5">
         <v>56</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>26</v>
+      <c r="D20" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
         <v>17</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2">
         <v>3</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="2">
         <v>40</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="O20" s="2">
+        <v>22</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="T20" s="2"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="5">
         <v>63</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>26</v>
+      <c r="D21" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2">
         <v>22</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2">
         <v>4</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="2">
         <v>57</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -3715,14 +3745,14 @@
         <v>56</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2">
         <v>13</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2">
@@ -3732,9 +3762,9 @@
         <v>0.84690702284591701</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C23" s="2">
         <v>140</v>
@@ -3747,33 +3777,33 @@
         <v>40</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2">
         <v>59</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L23" s="2">
         <v>67</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q23" s="2"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="O28" s="2"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3">
       <c r="C41" s="9" t="str">
         <f>C3 &amp; "  " &amp; "(" &amp; D3 &amp; ")"</f>
         <v>415  (0.043312574)</v>
@@ -3783,4 +3813,440 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280EEFA1-21EF-4B85-8479-2AEFA6236963}">
+  <dimension ref="A1:W38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="34.5" customWidth="1"/>
+    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>430</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>450</v>
+      </c>
+      <c r="C4">
+        <v>0.32344481536412506</v>
+      </c>
+      <c r="D4">
+        <v>0.12078656189910575</v>
+      </c>
+      <c r="E4">
+        <v>0.18432976717947536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>86</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>94</v>
+      </c>
+      <c r="C17">
+        <v>0.39177939898649916</v>
+      </c>
+      <c r="D17">
+        <v>2.3655285393866632E-2</v>
+      </c>
+      <c r="E17">
+        <v>5.3580423366622387E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2">
+        <v>43</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>48</v>
+      </c>
+      <c r="C30">
+        <v>0.45211317929455752</v>
+      </c>
+      <c r="D30">
+        <v>2.2322478588323591E-3</v>
+      </c>
+      <c r="E30">
+        <v>7.0361693542625448E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/seminar_results.xlsx
+++ b/Results/seminar_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thani\Dropbox\R\Github\Quant-Finance-Seminar\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403ECB84-421E-46E2-9464-12157B653B60}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C240BCD3-D6F8-402A-85D6-9F5420D86073}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sp" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="h_day" sheetId="6" r:id="rId5"/>
     <sheet name="jpm" sheetId="8" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="28">
   <si>
     <t>Cond. GARCH EVT</t>
   </si>
@@ -2463,8 +2463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3137,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -3186,6 +3186,9 @@
         <v>539</v>
       </c>
       <c r="M2" s="2"/>
+      <c r="O2" s="2">
+        <v>430</v>
+      </c>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" t="s">
@@ -3217,6 +3220,12 @@
       </c>
       <c r="M3" s="6">
         <v>0.14669242738933452</v>
+      </c>
+      <c r="O3">
+        <v>305</v>
+      </c>
+      <c r="P3">
+        <v>0.71728347276289961</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -3410,7 +3419,9 @@
       <c r="L10" s="2">
         <v>108</v>
       </c>
-      <c r="O10" s="2"/>
+      <c r="O10" s="2">
+        <v>86</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -3448,8 +3459,12 @@
       <c r="M11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="O11">
+        <v>45</v>
+      </c>
+      <c r="P11">
+        <v>0.23882912235117201</v>
+      </c>
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:21">
@@ -3622,7 +3637,9 @@
       <c r="L18" s="2">
         <v>54</v>
       </c>
-      <c r="O18" s="2"/>
+      <c r="O18" s="2">
+        <v>43</v>
+      </c>
       <c r="P18" s="2"/>
     </row>
     <row r="19" spans="1:20">
@@ -3656,8 +3673,12 @@
       <c r="M19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
+      <c r="O19">
+        <v>23</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
@@ -3819,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280EEFA1-21EF-4B85-8479-2AEFA6236963}">
   <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3862,10 +3883,18 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
+      <c r="B3">
+        <v>442</v>
+      </c>
+      <c r="C3">
+        <v>0.55110011069360265</v>
+      </c>
+      <c r="D3">
+        <v>1.9284213461172817E-2</v>
+      </c>
+      <c r="E3">
+        <v>5.4179451723915473E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" s="1" t="s">
@@ -4014,6 +4043,18 @@
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B16">
+        <v>94</v>
+      </c>
+      <c r="C16">
+        <v>0.39177939898649916</v>
+      </c>
+      <c r="D16">
+        <v>4.138540289418402E-3</v>
+      </c>
+      <c r="E16">
+        <v>1.135940071649888E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
@@ -4142,10 +4183,18 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="B29">
+        <v>52</v>
+      </c>
+      <c r="C29">
+        <v>0.18236853408949238</v>
+      </c>
+      <c r="D29">
+        <v>4.1884974491982252E-2</v>
+      </c>
+      <c r="E29">
+        <v>5.1869146460323035E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">

--- a/Results/seminar_results.xlsx
+++ b/Results/seminar_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thani\Dropbox\R\Github\Quant-Finance-Seminar\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C240BCD3-D6F8-402A-85D6-9F5420D86073}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78686D44-3409-46D1-80AA-8222E6076B00}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="28">
   <si>
     <t>Cond. GARCH EVT</t>
   </si>
@@ -486,7 +486,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1144,7 +1144,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1802,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2464,7 +2464,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3138,7 +3138,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -3221,10 +3221,10 @@
       <c r="M3" s="6">
         <v>0.14669242738933452</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="2">
         <v>305</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="6">
         <v>0.71728347276289961</v>
       </c>
     </row>
@@ -3262,7 +3262,7 @@
       <c r="O4" s="2">
         <v>219</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="6">
         <v>0.85848730664085759</v>
       </c>
     </row>
@@ -3297,8 +3297,12 @@
       <c r="M5" s="6">
         <v>0.19901892500000001</v>
       </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="O5">
+        <v>244</v>
+      </c>
+      <c r="P5">
+        <v>0.97897009256573941</v>
+      </c>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" t="s">
@@ -3331,8 +3335,7 @@
       <c r="M6" s="6">
         <v>2.5903149293944883E-2</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" t="s">
@@ -3365,8 +3368,12 @@
       <c r="M7" s="6">
         <v>0.59454384808304517</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
+      <c r="O7" s="2">
+        <v>471</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.96330949333823668</v>
+      </c>
     </row>
     <row r="8" spans="1:21">
       <c r="C8" s="2"/>
@@ -3381,7 +3388,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="6"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
@@ -3399,7 +3406,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
@@ -3422,7 +3429,7 @@
       <c r="O10" s="2">
         <v>86</v>
       </c>
-      <c r="P10" s="2"/>
+      <c r="P10" s="6"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
@@ -3459,10 +3466,10 @@
       <c r="M11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="2">
         <v>45</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="6">
         <v>0.23882912235117201</v>
       </c>
       <c r="S11" s="2"/>
@@ -3537,8 +3544,12 @@
       <c r="M13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
+      <c r="O13">
+        <v>40</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
@@ -3606,8 +3617,12 @@
       <c r="M15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
+      <c r="O15" s="2">
+        <v>116</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:21">
       <c r="O16" s="2"/>
@@ -3673,7 +3688,7 @@
       <c r="M19" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="2">
         <v>23</v>
       </c>
       <c r="P19" s="2" t="s">
@@ -3750,6 +3765,12 @@
       <c r="M21" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="O21" s="2">
+        <v>19</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
@@ -3782,6 +3803,7 @@
       <c r="M22" s="6">
         <v>0.84690702284591701</v>
       </c>
+      <c r="O22" s="2"/>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
@@ -3813,7 +3835,12 @@
       <c r="M23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q23" s="2"/>
+      <c r="O23" s="2">
+        <v>73</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="26" spans="1:20">
       <c r="P26" s="2"/>
@@ -3841,7 +3868,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3883,16 +3910,16 @@
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>442</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>0.55110011069360265</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>1.9284213461172817E-2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>5.4179451723915473E-2</v>
       </c>
     </row>
@@ -3900,16 +3927,16 @@
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>450</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>0.32344481536412506</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6">
         <v>0.12078656189910575</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>0.18432976717947536</v>
       </c>
     </row>
@@ -3917,11 +3944,18 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="G5" s="3"/>
+      <c r="B5">
+        <v>464</v>
+      </c>
+      <c r="C5">
+        <v>9.5532341424971579E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.22325816075873339</v>
+      </c>
+      <c r="E5">
+        <v>0.11872485845913427</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -3943,10 +3977,18 @@
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="2">
+        <v>404</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.05</v>
+      </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -3955,37 +3997,69 @@
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="2">
+        <v>415</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0.51</v>
+      </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="2">
+        <v>424</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.39</v>
+      </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="B9" s="2">
+        <v>453</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="B10" s="2">
+        <v>446</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" s="1" t="s">
@@ -4000,10 +4074,18 @@
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="2">
+        <v>470</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:23">
       <c r="B13" s="2"/>
@@ -4043,16 +4125,16 @@
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>94</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>0.39177939898649916</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="6">
         <v>4.138540289418402E-3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>1.135940071649888E-2</v>
       </c>
     </row>
@@ -4060,16 +4142,16 @@
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>94</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>0.39177939898649916</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="6">
         <v>2.3655285393866632E-2</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>5.3580423366622387E-2</v>
       </c>
     </row>
@@ -4077,55 +4159,103 @@
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="B18">
+        <v>101</v>
+      </c>
+      <c r="C18">
+        <v>0.11314803572592336</v>
+      </c>
+      <c r="D18">
+        <v>1.3331515558040463E-3</v>
+      </c>
+      <c r="E18">
+        <v>1.6567923411908714E-3</v>
+      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+      <c r="B19" s="2">
+        <v>134</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
+      <c r="B20" s="2">
+        <v>127</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+      <c r="B21" s="2">
+        <v>136</v>
+      </c>
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="B22" s="2">
+        <v>101</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0.03</v>
+      </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="B23" s="2">
+        <v>99</v>
+      </c>
+      <c r="C23" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
@@ -4140,10 +4270,18 @@
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
+      <c r="B25" s="2">
+        <v>117</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:12">
       <c r="B26" s="2"/>
@@ -4183,16 +4321,16 @@
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>52</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>0.18236853408949238</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="6">
         <v>4.1884974491982252E-2</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="6">
         <v>5.1869146460323035E-2</v>
       </c>
     </row>
@@ -4200,16 +4338,16 @@
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>48</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>0.45211317929455752</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="6">
         <v>2.2322478588323591E-3</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="6">
         <v>7.0361693542625448E-3</v>
       </c>
     </row>
@@ -4217,10 +4355,18 @@
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
+      <c r="B31">
+        <v>54</v>
+      </c>
+      <c r="C31">
+        <v>0.10552714724718404</v>
+      </c>
+      <c r="D31">
+        <v>4.6099449719433361E-3</v>
+      </c>
+      <c r="E31">
+        <v>4.8771322778573545E-3</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -4231,10 +4377,18 @@
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="B32" s="2">
+        <v>96</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -4245,37 +4399,69 @@
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="B33" s="2">
+        <v>89</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="B34" s="2">
+        <v>90</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="B35" s="2">
+        <v>52</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
+      <c r="B36" s="2">
+        <v>49</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.38</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
@@ -4290,12 +4476,21 @@
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="B38" s="2">
+        <v>62</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results/seminar_results.xlsx
+++ b/Results/seminar_results.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thani\Dropbox\R\Github\Quant-Finance-Seminar\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Documents/Repositories/Quant-Finance-Seminar/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78686D44-3409-46D1-80AA-8222E6076B00}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="sp" sheetId="3" r:id="rId1"/>
     <sheet name="gold" sheetId="5" r:id="rId2"/>
     <sheet name="rds" sheetId="4" r:id="rId3"/>
     <sheet name="aex" sheetId="7" r:id="rId4"/>
-    <sheet name="h_day" sheetId="6" r:id="rId5"/>
-    <sheet name="jpm" sheetId="8" r:id="rId6"/>
+    <sheet name="jpm" sheetId="8" r:id="rId5"/>
+    <sheet name="h_day" sheetId="6" r:id="rId6"/>
+    <sheet name="Shit" sheetId="9" r:id="rId7"/>
+    <sheet name="Final Tables" sheetId="10" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="39">
   <si>
     <t>Cond. GARCH EVT</t>
   </si>
@@ -118,15 +119,48 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>SP500</t>
+  </si>
+  <si>
+    <t>Unconditional Coverage</t>
+  </si>
+  <si>
+    <t>Violations</t>
+  </si>
+  <si>
+    <t>P-Value</t>
+  </si>
+  <si>
+    <t>Conditional GARCH EVT</t>
+  </si>
+  <si>
+    <t>Conditional TGARCH EVT</t>
+  </si>
+  <si>
+    <t>Conditional EGARCH EVT</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>RDS</t>
+  </si>
+  <si>
+    <t>AEX</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,6 +184,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -168,11 +239,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -202,8 +278,37 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -482,21 +587,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
+      <selection activeCell="A38" sqref="A1:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -513,7 +618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -524,7 +629,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -541,7 +646,7 @@
         <v>0.73079455199999999</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -558,7 +663,7 @@
         <v>0.80087837399999995</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -593,7 +698,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -613,7 +718,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -630,7 +735,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -647,7 +752,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -664,7 +769,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -681,7 +786,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -698,7 +803,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -715,13 +820,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -738,7 +843,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -749,7 +854,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -766,7 +871,7 @@
         <v>0.91656326899999996</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -783,7 +888,7 @@
         <v>0.39681062900000003</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -800,7 +905,7 @@
         <v>0.238754719</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -817,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -834,7 +939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -851,7 +956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -868,7 +973,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -885,7 +990,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -902,7 +1007,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -919,13 +1024,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,7 +1047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -953,7 +1058,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +1075,7 @@
         <v>0.32949495200000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -987,7 +1092,7 @@
         <v>8.3031912999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1009,7 +1114,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1031,7 +1136,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1048,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1065,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1187,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1204,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1116,7 +1221,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1140,21 +1245,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1182,7 +1287,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,7 +1305,7 @@
       </c>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1217,7 +1322,7 @@
         <v>3.9931407648174932E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1239,7 +1344,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1257,7 +1362,7 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1274,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1291,7 +1396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1308,7 +1413,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1325,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1342,7 +1447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -1359,12 +1464,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1384,7 +1489,7 @@
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1398,7 +1503,7 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1524,7 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1436,7 +1541,7 @@
         <v>0.22847425376976105</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -1453,7 +1558,7 @@
         <v>0.69147531200000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1470,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1487,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -1504,7 +1609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -1521,7 +1626,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1538,7 +1643,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -1559,7 +1664,7 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -1580,13 +1685,13 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1607,7 +1712,7 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -1618,7 +1723,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -1635,7 +1740,7 @@
         <v>0.4276570922340438</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1652,7 +1757,7 @@
         <v>0.47067211290427513</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -1671,7 +1776,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1690,7 +1795,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -1707,7 +1812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -1724,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -1741,7 +1846,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -1758,7 +1863,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -1775,7 +1880,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -1799,21 +1904,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1830,7 +1935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1841,7 +1946,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1858,7 +1963,7 @@
         <v>0.71566249599999998</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1876,7 +1981,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1899,7 +2004,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1918,7 +2023,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -1935,7 +2040,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1952,7 +2057,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -1969,7 +2074,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1986,7 +2091,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2003,7 +2108,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2020,13 +2125,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2047,7 +2152,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2062,7 +2167,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2083,7 +2188,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2100,7 +2205,7 @@
         <v>0.80046916899999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2117,7 +2222,7 @@
         <v>0.272789752</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2134,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2168,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -2185,7 +2290,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -2202,7 +2307,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2223,7 +2328,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -2244,13 +2349,13 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -2271,7 +2376,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -2282,7 +2387,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2299,7 +2404,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2316,7 +2421,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -2334,7 +2439,7 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -2352,7 +2457,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -2369,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -2386,7 +2491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -2403,7 +2508,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -2420,7 +2525,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -2437,7 +2542,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -2460,21 +2565,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B11" sqref="A1:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2492,7 +2597,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2503,7 +2608,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2625,7 @@
         <v>0.58278641200000003</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2537,7 +2642,7 @@
         <v>0.86286327206249125</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -2560,7 +2665,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -2578,7 +2683,7 @@
       </c>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -2595,7 +2700,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -2612,7 +2717,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -2629,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2646,7 +2751,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -2663,7 +2768,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -2680,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2690,7 +2795,7 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -2711,7 +2816,7 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -2726,7 +2831,7 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -2747,7 +2852,7 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2764,7 +2869,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -2781,7 +2886,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -2798,7 +2903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -2815,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -2832,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -2849,7 +2954,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -2866,7 +2971,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -2887,7 +2992,7 @@
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -2908,7 +3013,7 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -2918,7 +3023,7 @@
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -2939,7 +3044,7 @@
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -2950,7 +3055,7 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -2967,7 +3072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -2984,7 +3089,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -3002,7 +3107,7 @@
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -3020,7 +3125,7 @@
       </c>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -3037,7 +3142,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -3054,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -3071,7 +3176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -3088,7 +3193,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -3105,7 +3210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -3122,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3134,751 +3239,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:U41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:E38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2">
-        <v>370</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2">
-        <v>240</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2">
-        <v>241</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
-        <v>539</v>
-      </c>
-      <c r="M2" s="2"/>
-      <c r="O2" s="2">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2">
-        <v>415</v>
-      </c>
-      <c r="D3" s="6">
-        <v>4.3312574E-2</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5">
-        <v>235</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0.86306933500000005</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2">
-        <v>179</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0.48253226399999999</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>382</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0.14669242738933452</v>
-      </c>
-      <c r="O3" s="2">
-        <v>305</v>
-      </c>
-      <c r="P3" s="6">
-        <v>0.71728347276289961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5">
-        <v>358</v>
-      </c>
-      <c r="D4" s="7">
-        <v>6.7624584000000001E-2</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2">
-        <v>196</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.72775942400000004</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2">
-        <v>95</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.47340124608670997</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
-        <v>451</v>
-      </c>
-      <c r="M4" s="6">
-        <v>6.5822905632346718E-2</v>
-      </c>
-      <c r="O4" s="2">
-        <v>219</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0.85848730664085759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5">
-        <v>374</v>
-      </c>
-      <c r="D5" s="7">
-        <v>6.8279500000000002E-3</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2">
-        <v>214</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.84283375699999996</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2">
-        <v>111</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0.70697080499999998</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2">
-        <v>552</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0.19901892500000001</v>
-      </c>
-      <c r="O5">
-        <v>244</v>
-      </c>
-      <c r="P5">
-        <v>0.97897009256573941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
-        <v>547</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2.1823653995056702E-12</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2">
-        <v>261</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1.2692304208405947E-3</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2">
-        <v>173</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0.59623134665625477</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2">
-        <v>423</v>
-      </c>
-      <c r="M6" s="6">
-        <v>2.5903149293944883E-2</v>
-      </c>
-      <c r="P6" s="6"/>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="2">
-        <v>643</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0.15415562569035057</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2">
-        <v>254</v>
-      </c>
-      <c r="G7" s="10">
-        <v>0.28810464993143081</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2">
-        <v>302</v>
-      </c>
-      <c r="J7" s="10">
-        <v>0.98665981386393586</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2">
-        <v>575</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0.59454384808304517</v>
-      </c>
-      <c r="O7" s="2">
-        <v>471</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0.96330949333823668</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
-      <c r="C8" s="2"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="6"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="6"/>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="6"/>
-    </row>
-    <row r="10" spans="1:21">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="2">
-        <v>74</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2">
-        <v>48</v>
-      </c>
-      <c r="I10" s="2">
-        <v>48</v>
-      </c>
-      <c r="L10" s="2">
-        <v>108</v>
-      </c>
-      <c r="O10" s="2">
-        <v>86</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:21">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2">
-        <v>103</v>
-      </c>
-      <c r="D11" s="6">
-        <v>7.3425592999999997E-2</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="5">
-        <v>37</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2">
-        <v>25</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2">
-        <v>36</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="2">
-        <v>45</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0.23882912235117201</v>
-      </c>
-      <c r="S11" s="2"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="5">
-        <v>100</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.59751638399999996</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2">
-        <v>34</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="5"/>
-      <c r="I12" s="2">
-        <v>6</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="2">
-        <v>82</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="2">
-        <v>33</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="5">
-        <v>105</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2.1011173000000001E-2</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2">
-        <v>39</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2">
-        <v>10</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <v>108</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O13">
-        <v>40</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2">
-        <v>225</v>
-      </c>
-      <c r="D14" s="6">
-        <v>6.7242489016683393E-5</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <v>85</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.65222151825393548</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2">
-        <v>19</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2">
-        <v>129</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0.72330960628535357</v>
-      </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="2">
-        <v>203</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0.21915291644497781</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>64</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2">
-        <v>100</v>
-      </c>
-      <c r="J15" s="10">
-        <v>0.3925871379563215</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2">
-        <v>111</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O15" s="2">
-        <v>116</v>
-      </c>
-      <c r="P15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="2">
-        <v>37</v>
-      </c>
-      <c r="F18" s="2">
-        <v>24</v>
-      </c>
-      <c r="I18" s="2">
-        <v>24</v>
-      </c>
-      <c r="L18" s="2">
-        <v>54</v>
-      </c>
-      <c r="O18" s="2">
-        <v>43</v>
-      </c>
-      <c r="P18" s="2"/>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2">
-        <v>69</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0.67820488099999998</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5">
-        <v>23</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2">
-        <v>11</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2">
-        <v>13</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O19" s="2">
-        <v>23</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5">
-        <v>56</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2">
-        <v>17</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2">
-        <v>3</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2">
-        <v>40</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O20" s="2">
-        <v>22</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="T20" s="2"/>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="5">
-        <v>63</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2">
-        <v>22</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2">
-        <v>4</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2">
-        <v>57</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O21" s="2">
-        <v>19</v>
-      </c>
-      <c r="P21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22" s="2">
-        <v>168</v>
-      </c>
-      <c r="D22" s="6">
-        <v>5.413247352514805E-4</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
-        <v>56</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
-        <v>13</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2">
-        <v>94</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0.84690702284591701</v>
-      </c>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="2">
-        <v>140</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0.66804150851764676</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2">
-        <v>40</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
-        <v>59</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="L23" s="2">
-        <v>67</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O23" s="2">
-        <v>73</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="O28" s="2"/>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="9" t="str">
-        <f>C3 &amp; "  " &amp; "(" &amp; D3 &amp; ")"</f>
-        <v>415  (0.043312574)</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280EEFA1-21EF-4B85-8479-2AEFA6236963}">
-  <dimension ref="A1:W38"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="34.5" customWidth="1"/>
-    <col min="4" max="4" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -3895,7 +3270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -3906,7 +3281,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3923,7 +3298,7 @@
         <v>5.4179451723915473E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3940,7 +3315,7 @@
         <v>0.18432976717947536</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -3973,7 +3348,7 @@
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -3993,7 +3368,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -4010,7 +3385,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4027,7 +3402,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -4044,7 +3419,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -4061,7 +3436,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -4070,7 +3445,7 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -4087,13 +3462,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -4110,7 +3485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -4121,7 +3496,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -4138,7 +3513,7 @@
         <v>1.135940071649888E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -4155,7 +3530,7 @@
         <v>5.3580423366622387E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>2</v>
       </c>
@@ -4172,7 +3547,7 @@
         <v>1.6567923411908714E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -4189,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -4206,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>5</v>
       </c>
@@ -4223,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -4240,7 +3615,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -4257,7 +3632,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -4266,7 +3641,7 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
@@ -4283,13 +3658,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -4306,7 +3681,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>13</v>
       </c>
@@ -4317,7 +3692,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -4334,7 +3709,7 @@
         <v>5.1869146460323035E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -4351,7 +3726,7 @@
         <v>7.0361693542625448E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>2</v>
       </c>
@@ -4373,7 +3748,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -4395,7 +3770,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
@@ -4412,7 +3787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
@@ -4429,7 +3804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>6</v>
       </c>
@@ -4446,7 +3821,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>7</v>
       </c>
@@ -4463,7 +3838,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
@@ -4472,7 +3847,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>9</v>
       </c>
@@ -4493,4 +3868,4647 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U41"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>370</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2">
+        <v>240</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2">
+        <v>241</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
+        <v>539</v>
+      </c>
+      <c r="M2" s="2"/>
+      <c r="O2" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2">
+        <v>415</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4.3312574E-2</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5">
+        <v>235</v>
+      </c>
+      <c r="G3" s="7">
+        <v>0.86306933500000005</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
+        <v>179</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.48253226399999999</v>
+      </c>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
+        <v>382</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0.14669242738933452</v>
+      </c>
+      <c r="O3" s="2">
+        <v>305</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.71728347276289961</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5">
+        <v>358</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6.7624584000000001E-2</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <v>196</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.72775942400000004</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
+        <v>95</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.47340124608670997</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
+        <v>451</v>
+      </c>
+      <c r="M4" s="6">
+        <v>6.5822905632346718E-2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>219</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.85848730664085759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5">
+        <v>374</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6.8279500000000002E-3</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>214</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.84283375699999996</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2">
+        <v>111</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.70697080499999998</v>
+      </c>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <v>552</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0.19901892500000001</v>
+      </c>
+      <c r="O5">
+        <v>244</v>
+      </c>
+      <c r="P5">
+        <v>0.97897009256573941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>547</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.1823653995056702E-12</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>261</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1.2692304208405947E-3</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2">
+        <v>173</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.59623134665625477</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2">
+        <v>423</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2.5903149293944883E-2</v>
+      </c>
+      <c r="P6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2">
+        <v>643</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0.15415562569035057</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2">
+        <v>254</v>
+      </c>
+      <c r="G7" s="10">
+        <v>0.28810464993143081</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2">
+        <v>302</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.98665981386393586</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2">
+        <v>575</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0.59454384808304517</v>
+      </c>
+      <c r="O7" s="2">
+        <v>471</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0.96330949333823668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C8" s="2"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="6"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2">
+        <v>48</v>
+      </c>
+      <c r="I10" s="2">
+        <v>48</v>
+      </c>
+      <c r="L10" s="2">
+        <v>108</v>
+      </c>
+      <c r="O10" s="2">
+        <v>86</v>
+      </c>
+      <c r="P10" s="6"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="2">
+        <v>103</v>
+      </c>
+      <c r="D11" s="6">
+        <v>7.3425592999999997E-2</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="5">
+        <v>37</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2">
+        <v>25</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2">
+        <v>36</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O11" s="2">
+        <v>45</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0.23882912235117201</v>
+      </c>
+      <c r="S11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5">
+        <v>100</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0.59751638399999996</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>34</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="2">
+        <v>6</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="5"/>
+      <c r="L12" s="2">
+        <v>82</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O12" s="2">
+        <v>33</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="5">
+        <v>105</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2.1011173000000001E-2</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>39</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2">
+        <v>10</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2">
+        <v>108</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13">
+        <v>40</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2">
+        <v>225</v>
+      </c>
+      <c r="D14" s="6">
+        <v>6.7242489016683393E-5</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2">
+        <v>85</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0.65222151825393548</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2">
+        <v>19</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2">
+        <v>129</v>
+      </c>
+      <c r="M14" s="6">
+        <v>0.72330960628535357</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2">
+        <v>203</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.21915291644497781</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2">
+        <v>64</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2">
+        <v>100</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.3925871379563215</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2">
+        <v>111</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O15" s="2">
+        <v>116</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="2">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2">
+        <v>24</v>
+      </c>
+      <c r="L18" s="2">
+        <v>54</v>
+      </c>
+      <c r="O18" s="2">
+        <v>43</v>
+      </c>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <v>69</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.67820488099999998</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5">
+        <v>23</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
+        <v>11</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
+        <v>13</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="2">
+        <v>23</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5">
+        <v>56</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2">
+        <v>17</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>3</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2">
+        <v>40</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O20" s="2">
+        <v>22</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="5">
+        <v>63</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2">
+        <v>22</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>4</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2">
+        <v>57</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O21" s="2">
+        <v>19</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2">
+        <v>168</v>
+      </c>
+      <c r="D22" s="6">
+        <v>5.413247352514805E-4</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2">
+        <v>56</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
+        <v>13</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2">
+        <v>94</v>
+      </c>
+      <c r="M22" s="6">
+        <v>0.84690702284591701</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="2">
+        <v>140</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.66804150851764676</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2">
+        <v>40</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2">
+        <v>59</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="2">
+        <v>67</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O23" s="2">
+        <v>73</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O28" s="2"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" s="9" t="str">
+        <f>C3 &amp; "  " &amp; "(" &amp; D3 &amp; ")"</f>
+        <v>415  (0.043312574)</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:H59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15">
+        <v>0.99</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="14">
+        <v>0.995</v>
+      </c>
+      <c r="H2" s="14"/>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>430</v>
+      </c>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>442</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.55110011069360265</v>
+      </c>
+      <c r="S3" s="6">
+        <v>1.9284213461172817E-2</v>
+      </c>
+      <c r="T3" s="6">
+        <v>5.4179451723915473E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <f>Q2</f>
+        <v>430</v>
+      </c>
+      <c r="E4">
+        <f>Q15</f>
+        <v>86</v>
+      </c>
+      <c r="G4">
+        <f>Q28</f>
+        <v>43</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>450</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0.32344481536412506</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0.12078656189910575</v>
+      </c>
+      <c r="T4" s="6">
+        <v>0.18432976717947536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <f>Q3</f>
+        <v>442</v>
+      </c>
+      <c r="D5" s="16">
+        <f>R3</f>
+        <v>0.55110011069360265</v>
+      </c>
+      <c r="E5">
+        <f>Q16</f>
+        <v>94</v>
+      </c>
+      <c r="F5" s="16">
+        <f>R16</f>
+        <v>0.39177939898649916</v>
+      </c>
+      <c r="G5">
+        <f>Q29</f>
+        <v>52</v>
+      </c>
+      <c r="H5" s="16">
+        <f>R29</f>
+        <v>0.18236853408949238</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>464</v>
+      </c>
+      <c r="R5">
+        <v>9.5532341424971579E-2</v>
+      </c>
+      <c r="S5">
+        <v>0.22325816075873339</v>
+      </c>
+      <c r="T5">
+        <v>0.11872485845913427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:D6" si="0">Q4</f>
+        <v>450</v>
+      </c>
+      <c r="D6" s="16">
+        <f t="shared" si="0"/>
+        <v>0.32344481536412506</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:F6" si="1">Q17</f>
+        <v>94</v>
+      </c>
+      <c r="F6" s="16">
+        <f t="shared" si="1"/>
+        <v>0.39177939898649916</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:H6" si="2">Q30</f>
+        <v>48</v>
+      </c>
+      <c r="H6" s="16">
+        <f t="shared" si="2"/>
+        <v>0.45211317929455752</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>404</v>
+      </c>
+      <c r="R6" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="T6" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <f t="shared" ref="C7:D7" si="3">Q5</f>
+        <v>464</v>
+      </c>
+      <c r="D7" s="16">
+        <f t="shared" si="3"/>
+        <v>9.5532341424971579E-2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:F7" si="4">Q18</f>
+        <v>101</v>
+      </c>
+      <c r="F7" s="16">
+        <f t="shared" si="4"/>
+        <v>0.11314803572592336</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:H7" si="5">Q31</f>
+        <v>54</v>
+      </c>
+      <c r="H7" s="16">
+        <f t="shared" si="5"/>
+        <v>0.10552714724718404</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>415</v>
+      </c>
+      <c r="R7" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="S7" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="T7" s="6">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:D8" si="6">Q6</f>
+        <v>404</v>
+      </c>
+      <c r="D8" s="16">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:F8" si="7">Q19</f>
+        <v>134</v>
+      </c>
+      <c r="F8" s="16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:H8" si="8">Q32</f>
+        <v>96</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>424</v>
+      </c>
+      <c r="R8" s="6">
+        <v>0.77</v>
+      </c>
+      <c r="S8" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="T8" s="6">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:D9" si="9">Q7</f>
+        <v>415</v>
+      </c>
+      <c r="D9" s="16">
+        <f t="shared" si="9"/>
+        <v>0.46</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:F9" si="10">Q20</f>
+        <v>127</v>
+      </c>
+      <c r="F9" s="16">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ref="G9:H9" si="11">Q33</f>
+        <v>89</v>
+      </c>
+      <c r="H9" s="16">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>453</v>
+      </c>
+      <c r="R9" s="6">
+        <v>0.26</v>
+      </c>
+      <c r="S9" s="6">
+        <v>0</v>
+      </c>
+      <c r="T9" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:D10" si="12">Q8</f>
+        <v>424</v>
+      </c>
+      <c r="D10" s="16">
+        <f t="shared" si="12"/>
+        <v>0.77</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:F10" si="13">Q21</f>
+        <v>136</v>
+      </c>
+      <c r="F10" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10:H10" si="14">Q34</f>
+        <v>90</v>
+      </c>
+      <c r="H10" s="16">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>446</v>
+      </c>
+      <c r="R10" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="S10" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="T10" s="6">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:D11" si="15">Q9</f>
+        <v>453</v>
+      </c>
+      <c r="D11" s="16">
+        <f t="shared" si="15"/>
+        <v>0.26</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:F11" si="16">Q22</f>
+        <v>101</v>
+      </c>
+      <c r="F11" s="16">
+        <f t="shared" si="16"/>
+        <v>0.11</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:H11" si="17">Q35</f>
+        <v>52</v>
+      </c>
+      <c r="H11" s="16">
+        <f t="shared" si="17"/>
+        <v>0.18</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:D12" si="18">Q10</f>
+        <v>446</v>
+      </c>
+      <c r="D12" s="16">
+        <f t="shared" si="18"/>
+        <v>0.43</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:F12" si="19">Q23</f>
+        <v>99</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" si="19"/>
+        <v>0.17</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ref="G12:H12" si="20">Q36</f>
+        <v>49</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="20"/>
+        <v>0.37</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>470</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:D13" si="21">Q11</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="16">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:F13" si="22">Q24</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="16">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:H13" si="23">Q37</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:D14" si="24">Q12</f>
+        <v>470</v>
+      </c>
+      <c r="D14" s="16">
+        <f t="shared" si="24"/>
+        <v>0.05</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:F14" si="25">Q25</f>
+        <v>117</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:H14" si="26">Q38</f>
+        <v>62</v>
+      </c>
+      <c r="H14" s="16">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>86</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.99</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.995</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="P16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>94</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0.39177939898649916</v>
+      </c>
+      <c r="S16" s="6">
+        <v>4.138540289418402E-3</v>
+      </c>
+      <c r="T16" s="6">
+        <v>1.135940071649888E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="16">
+        <f>S3</f>
+        <v>1.9284213461172817E-2</v>
+      </c>
+      <c r="D17" s="16">
+        <f>S16</f>
+        <v>4.138540289418402E-3</v>
+      </c>
+      <c r="E17" s="16">
+        <f>S29</f>
+        <v>4.1884974491982252E-2</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>94</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0.39177939898649916</v>
+      </c>
+      <c r="S17" s="6">
+        <v>2.3655285393866632E-2</v>
+      </c>
+      <c r="T17" s="6">
+        <v>5.3580423366622387E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="16">
+        <f t="shared" ref="C18:C26" si="27">S4</f>
+        <v>0.12078656189910575</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" ref="D18:D26" si="28">S17</f>
+        <v>2.3655285393866632E-2</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" ref="E18:E26" si="29">S30</f>
+        <v>2.2322478588323591E-3</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>101</v>
+      </c>
+      <c r="R18">
+        <v>0.11314803572592336</v>
+      </c>
+      <c r="S18">
+        <v>1.3331515558040463E-3</v>
+      </c>
+      <c r="T18">
+        <v>1.6567923411908714E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="16">
+        <f t="shared" si="27"/>
+        <v>0.22325816075873339</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="28"/>
+        <v>1.3331515558040463E-3</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="29"/>
+        <v>4.6099449719433361E-3</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>134</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <v>0</v>
+      </c>
+      <c r="T19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="16">
+        <f t="shared" si="27"/>
+        <v>0.04</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="29"/>
+        <v>0.03</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>127</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0</v>
+      </c>
+      <c r="S20" s="6">
+        <v>0</v>
+      </c>
+      <c r="T20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="16">
+        <f t="shared" si="27"/>
+        <v>0.37</v>
+      </c>
+      <c r="D21" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="16">
+        <f t="shared" si="29"/>
+        <v>0.33</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>136</v>
+      </c>
+      <c r="R21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="6">
+        <v>0</v>
+      </c>
+      <c r="T21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="16">
+        <f t="shared" si="27"/>
+        <v>0.18</v>
+      </c>
+      <c r="D22" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <f t="shared" si="29"/>
+        <v>0.01</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>101</v>
+      </c>
+      <c r="R22" s="6">
+        <v>0.11</v>
+      </c>
+      <c r="S22" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="T22" s="6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D23" s="16">
+        <f t="shared" si="28"/>
+        <v>0.04</v>
+      </c>
+      <c r="E23" s="16">
+        <f t="shared" si="29"/>
+        <v>0.04</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>99</v>
+      </c>
+      <c r="R23" s="6">
+        <v>0.17</v>
+      </c>
+      <c r="S23" s="6">
+        <v>0</v>
+      </c>
+      <c r="T23" s="6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="16">
+        <f t="shared" si="27"/>
+        <v>0.01</v>
+      </c>
+      <c r="D24" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E24" s="16">
+        <f t="shared" si="29"/>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D25" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E25" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>117</v>
+      </c>
+      <c r="R25" s="6">
+        <v>0</v>
+      </c>
+      <c r="S25" s="6">
+        <v>0</v>
+      </c>
+      <c r="T25" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="T27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>43</v>
+      </c>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>52</v>
+      </c>
+      <c r="R29" s="6">
+        <v>0.18236853408949238</v>
+      </c>
+      <c r="S29" s="6">
+        <v>4.1884974491982252E-2</v>
+      </c>
+      <c r="T29" s="6">
+        <v>5.1869146460323035E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>48</v>
+      </c>
+      <c r="R30" s="6">
+        <v>0.45211317929455752</v>
+      </c>
+      <c r="S30" s="6">
+        <v>2.2322478588323591E-3</v>
+      </c>
+      <c r="T30" s="6">
+        <v>7.0361693542625448E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>54</v>
+      </c>
+      <c r="R31">
+        <v>0.10552714724718404</v>
+      </c>
+      <c r="S31">
+        <v>4.6099449719433361E-3</v>
+      </c>
+      <c r="T31">
+        <v>4.8771322778573545E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="P32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>96</v>
+      </c>
+      <c r="R32" s="6">
+        <v>0</v>
+      </c>
+      <c r="S32" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="T32" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="P33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>89</v>
+      </c>
+      <c r="R33" s="6">
+        <v>0</v>
+      </c>
+      <c r="S33" s="6">
+        <v>0.33</v>
+      </c>
+      <c r="T33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>90</v>
+      </c>
+      <c r="R34" s="6">
+        <v>0</v>
+      </c>
+      <c r="S34" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="T34" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>0.95</v>
+      </c>
+      <c r="E35">
+        <v>0.99</v>
+      </c>
+      <c r="G35">
+        <v>0.995</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>52</v>
+      </c>
+      <c r="R35" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="S35" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="T35" s="6">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>31</v>
+      </c>
+      <c r="G36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H36" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>49</v>
+      </c>
+      <c r="R36" s="6">
+        <v>0.37</v>
+      </c>
+      <c r="S36" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="T36" s="6">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>430</v>
+      </c>
+      <c r="E37">
+        <v>86</v>
+      </c>
+      <c r="G37">
+        <v>43</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38">
+        <v>442</v>
+      </c>
+      <c r="D38">
+        <v>0.55110011069360265</v>
+      </c>
+      <c r="E38">
+        <v>94</v>
+      </c>
+      <c r="F38">
+        <v>0.39177939898649916</v>
+      </c>
+      <c r="G38">
+        <v>52</v>
+      </c>
+      <c r="H38">
+        <v>0.18236853408949238</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>62</v>
+      </c>
+      <c r="R38" s="6">
+        <v>0</v>
+      </c>
+      <c r="S38" s="6">
+        <v>0</v>
+      </c>
+      <c r="T38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39">
+        <v>450</v>
+      </c>
+      <c r="D39">
+        <v>0.32344481536412506</v>
+      </c>
+      <c r="E39">
+        <v>94</v>
+      </c>
+      <c r="F39">
+        <v>0.39177939898649916</v>
+      </c>
+      <c r="G39">
+        <v>48</v>
+      </c>
+      <c r="H39">
+        <v>0.45211317929455752</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>464</v>
+      </c>
+      <c r="D40">
+        <v>9.5532341424971579E-2</v>
+      </c>
+      <c r="E40">
+        <v>101</v>
+      </c>
+      <c r="F40">
+        <v>0.11314803572592336</v>
+      </c>
+      <c r="G40">
+        <v>54</v>
+      </c>
+      <c r="H40">
+        <v>0.10552714724718404</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41">
+        <v>404</v>
+      </c>
+      <c r="D41">
+        <v>0.2</v>
+      </c>
+      <c r="E41">
+        <v>134</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>96</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>415</v>
+      </c>
+      <c r="D42">
+        <v>0.46</v>
+      </c>
+      <c r="E42">
+        <v>127</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>89</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>424</v>
+      </c>
+      <c r="D43">
+        <v>0.77</v>
+      </c>
+      <c r="E43">
+        <v>136</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>90</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>453</v>
+      </c>
+      <c r="D44">
+        <v>0.26</v>
+      </c>
+      <c r="E44">
+        <v>101</v>
+      </c>
+      <c r="F44">
+        <v>0.11</v>
+      </c>
+      <c r="G44">
+        <v>52</v>
+      </c>
+      <c r="H44">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>446</v>
+      </c>
+      <c r="D45">
+        <v>0.43</v>
+      </c>
+      <c r="E45">
+        <v>99</v>
+      </c>
+      <c r="F45">
+        <v>0.17</v>
+      </c>
+      <c r="G45">
+        <v>49</v>
+      </c>
+      <c r="H45">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47">
+        <v>470</v>
+      </c>
+      <c r="D47">
+        <v>0.05</v>
+      </c>
+      <c r="E47">
+        <v>117</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>62</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>0.95</v>
+      </c>
+      <c r="D49">
+        <v>0.99</v>
+      </c>
+      <c r="E49">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50">
+        <v>1.9284213461172817E-2</v>
+      </c>
+      <c r="D50">
+        <v>4.138540289418402E-3</v>
+      </c>
+      <c r="E50">
+        <v>4.1884974491982252E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51">
+        <v>0.12078656189910575</v>
+      </c>
+      <c r="D51">
+        <v>2.3655285393866632E-2</v>
+      </c>
+      <c r="E51">
+        <v>2.2322478588323591E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52">
+        <v>0.22325816075873339</v>
+      </c>
+      <c r="D52">
+        <v>1.3331515558040463E-3</v>
+      </c>
+      <c r="E52">
+        <v>4.6099449719433361E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>0.04</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>0.37</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>0.18</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0.04</v>
+      </c>
+      <c r="E56">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>0.01</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="21.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25">
+        <v>0.99</v>
+      </c>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26">
+        <v>0.995</v>
+      </c>
+      <c r="H2" s="26"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="20">
+        <v>370</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20">
+        <v>74</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20">
+        <v>37</v>
+      </c>
+      <c r="H4" s="20"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="20">
+        <v>372</v>
+      </c>
+      <c r="D5" s="21">
+        <v>0.93</v>
+      </c>
+      <c r="E5" s="20">
+        <v>72</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0.81</v>
+      </c>
+      <c r="G5" s="20">
+        <v>43</v>
+      </c>
+      <c r="H5" s="21">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="20">
+        <v>363</v>
+      </c>
+      <c r="D6" s="21">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="20">
+        <v>86</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="G6" s="20">
+        <v>50</v>
+      </c>
+      <c r="H6" s="21">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="20">
+        <v>372</v>
+      </c>
+      <c r="D7" s="21">
+        <v>0.93</v>
+      </c>
+      <c r="E7" s="20">
+        <v>89</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="G7" s="20">
+        <v>52</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="20">
+        <v>383</v>
+      </c>
+      <c r="D8" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="20">
+        <v>108</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <v>62</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="20"/>
+      <c r="B9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="20">
+        <v>367</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.86</v>
+      </c>
+      <c r="E9" s="20">
+        <v>104</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>65</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="20"/>
+      <c r="B10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="20">
+        <v>366</v>
+      </c>
+      <c r="D10" s="21">
+        <v>0.82</v>
+      </c>
+      <c r="E10" s="20">
+        <v>107</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <v>65</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="20"/>
+      <c r="B11" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="20">
+        <v>405</v>
+      </c>
+      <c r="D11" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E11" s="20">
+        <v>78</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.65</v>
+      </c>
+      <c r="G11" s="20">
+        <v>45</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="20"/>
+      <c r="B12" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="20">
+        <v>402</v>
+      </c>
+      <c r="D12" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="20">
+        <v>87</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G12" s="20">
+        <v>44</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="20">
+        <v>396</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.17</v>
+      </c>
+      <c r="E13" s="20">
+        <v>89</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="G13" s="20">
+        <v>47</v>
+      </c>
+      <c r="H13" s="21">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="20">
+        <v>402</v>
+      </c>
+      <c r="D14" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="20">
+        <v>85</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.21</v>
+      </c>
+      <c r="G14" s="20">
+        <v>48</v>
+      </c>
+      <c r="H14" s="21">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="D16" s="23">
+        <v>0.99</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0.995</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="21">
+        <v>0.43</v>
+      </c>
+      <c r="D17" s="21">
+        <v>0.73</v>
+      </c>
+      <c r="E17" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="21">
+        <v>0.59</v>
+      </c>
+      <c r="D18" s="21">
+        <v>1</v>
+      </c>
+      <c r="E18" s="21">
+        <v>0.35</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="21">
+        <v>0.94</v>
+      </c>
+      <c r="D19" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="E19" s="21">
+        <v>0.38</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="20"/>
+      <c r="B20" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="21">
+        <v>0.16</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0.62</v>
+      </c>
+      <c r="E20" s="21">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="20"/>
+      <c r="B21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="21">
+        <v>0.36</v>
+      </c>
+      <c r="D21" s="21">
+        <v>0.68</v>
+      </c>
+      <c r="E21" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="20"/>
+      <c r="B22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="21">
+        <v>0.82</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0.63</v>
+      </c>
+      <c r="E22" s="21">
+        <v>0.6</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="20"/>
+      <c r="B23" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="21">
+        <v>0.53</v>
+      </c>
+      <c r="D23" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="E23" s="21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="20"/>
+      <c r="B24" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="21">
+        <v>0.79</v>
+      </c>
+      <c r="D24" s="21">
+        <v>0.98</v>
+      </c>
+      <c r="E24" s="21">
+        <v>0.27</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="20"/>
+      <c r="B25" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0.31</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="20"/>
+      <c r="B26" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="21">
+        <v>0</v>
+      </c>
+      <c r="D26" s="21">
+        <v>0</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25">
+        <v>0.99</v>
+      </c>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26">
+        <v>0.995</v>
+      </c>
+      <c r="H30" s="26"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="20">
+        <v>539</v>
+      </c>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20">
+        <v>108</v>
+      </c>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20">
+        <v>54</v>
+      </c>
+      <c r="H32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="20"/>
+      <c r="B33" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="20">
+        <v>523</v>
+      </c>
+      <c r="D33" s="21">
+        <v>0.48</v>
+      </c>
+      <c r="E33" s="20">
+        <v>97</v>
+      </c>
+      <c r="F33" s="21">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G33" s="20">
+        <v>50</v>
+      </c>
+      <c r="H33" s="21">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="20">
+        <v>536</v>
+      </c>
+      <c r="D34" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="E34" s="20">
+        <v>103</v>
+      </c>
+      <c r="F34" s="21">
+        <v>0.64</v>
+      </c>
+      <c r="G34" s="20">
+        <v>51</v>
+      </c>
+      <c r="H34" s="21">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="20">
+        <v>532</v>
+      </c>
+      <c r="D35" s="21">
+        <v>0.76</v>
+      </c>
+      <c r="E35" s="20">
+        <v>106</v>
+      </c>
+      <c r="F35" s="21">
+        <v>0.86</v>
+      </c>
+      <c r="G35" s="20">
+        <v>56</v>
+      </c>
+      <c r="H35" s="21">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="20"/>
+      <c r="B36" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="20">
+        <v>437</v>
+      </c>
+      <c r="D36" s="21">
+        <v>0</v>
+      </c>
+      <c r="E36" s="20">
+        <v>150</v>
+      </c>
+      <c r="F36" s="21">
+        <v>0</v>
+      </c>
+      <c r="G36" s="20">
+        <v>104</v>
+      </c>
+      <c r="H36" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="20"/>
+      <c r="B37" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="20">
+        <v>451</v>
+      </c>
+      <c r="D37" s="21">
+        <v>0</v>
+      </c>
+      <c r="E37" s="20">
+        <v>162</v>
+      </c>
+      <c r="F37" s="21">
+        <v>0</v>
+      </c>
+      <c r="G37" s="20">
+        <v>112</v>
+      </c>
+      <c r="H37" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="20"/>
+      <c r="B38" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="20">
+        <v>444</v>
+      </c>
+      <c r="D38" s="21">
+        <v>0</v>
+      </c>
+      <c r="E38" s="20">
+        <v>163</v>
+      </c>
+      <c r="F38" s="21">
+        <v>0</v>
+      </c>
+      <c r="G38" s="20">
+        <v>105</v>
+      </c>
+      <c r="H38" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="20"/>
+      <c r="B39" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="20">
+        <v>500</v>
+      </c>
+      <c r="D39" s="21">
+        <v>0.08</v>
+      </c>
+      <c r="E39" s="20">
+        <v>100</v>
+      </c>
+      <c r="F39" s="21">
+        <v>0.45</v>
+      </c>
+      <c r="G39" s="20">
+        <v>49</v>
+      </c>
+      <c r="H39" s="21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="20"/>
+      <c r="B40" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="20">
+        <v>506</v>
+      </c>
+      <c r="D40" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E40" s="20">
+        <v>111</v>
+      </c>
+      <c r="F40" s="21">
+        <v>0.75</v>
+      </c>
+      <c r="G40" s="20">
+        <v>56</v>
+      </c>
+      <c r="H40" s="21">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="20"/>
+      <c r="B41" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="20">
+        <v>522</v>
+      </c>
+      <c r="D41" s="21">
+        <v>0.46</v>
+      </c>
+      <c r="E41" s="20">
+        <v>104</v>
+      </c>
+      <c r="F41" s="21">
+        <v>0.72</v>
+      </c>
+      <c r="G41" s="20">
+        <v>58</v>
+      </c>
+      <c r="H41" s="21">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="20"/>
+      <c r="B42" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="20">
+        <v>516</v>
+      </c>
+      <c r="D42" s="21">
+        <v>0.31</v>
+      </c>
+      <c r="E42" s="20">
+        <v>109</v>
+      </c>
+      <c r="F42" s="21">
+        <v>0.91</v>
+      </c>
+      <c r="G42" s="20">
+        <v>63</v>
+      </c>
+      <c r="H42" s="21">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="D44" s="23">
+        <v>0.99</v>
+      </c>
+      <c r="E44" s="24">
+        <v>0.995</v>
+      </c>
+      <c r="F44" s="23"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="21">
+        <v>0.13</v>
+      </c>
+      <c r="D45" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="E45" s="21">
+        <v>0.24</v>
+      </c>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="21">
+        <v>0</v>
+      </c>
+      <c r="D46" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="21">
+        <v>0.25</v>
+      </c>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="21">
+        <v>0</v>
+      </c>
+      <c r="D47" s="21">
+        <v>0.4</v>
+      </c>
+      <c r="E47" s="21">
+        <v>0.04</v>
+      </c>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="20"/>
+      <c r="B48" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="21">
+        <v>0.09</v>
+      </c>
+      <c r="D48" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="E48" s="21">
+        <v>0.38</v>
+      </c>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="20"/>
+      <c r="B49" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="21">
+        <v>0</v>
+      </c>
+      <c r="D49" s="21">
+        <v>0.05</v>
+      </c>
+      <c r="E49" s="21">
+        <v>0.48</v>
+      </c>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="20"/>
+      <c r="B50" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="21">
+        <v>0</v>
+      </c>
+      <c r="D50" s="21">
+        <v>0</v>
+      </c>
+      <c r="E50" s="21">
+        <v>0.39</v>
+      </c>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="20"/>
+      <c r="B51" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="D51" s="21">
+        <v>0.33</v>
+      </c>
+      <c r="E51" s="21">
+        <v>0.23</v>
+      </c>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="20"/>
+      <c r="B52" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="21">
+        <v>0</v>
+      </c>
+      <c r="D52" s="21">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E52" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="20"/>
+      <c r="B53" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="21">
+        <v>0</v>
+      </c>
+      <c r="D53" s="21">
+        <v>0.02</v>
+      </c>
+      <c r="E53" s="21">
+        <v>0.33</v>
+      </c>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="20"/>
+      <c r="B54" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="21">
+        <v>0</v>
+      </c>
+      <c r="D54" s="21">
+        <v>0</v>
+      </c>
+      <c r="E54" s="21">
+        <v>0</v>
+      </c>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25">
+        <v>0.99</v>
+      </c>
+      <c r="F58" s="25"/>
+      <c r="G58" s="26">
+        <v>0.995</v>
+      </c>
+      <c r="H58" s="26"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60">
+        <v>241</v>
+      </c>
+      <c r="E60">
+        <v>48</v>
+      </c>
+      <c r="G60">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61">
+        <v>247</v>
+      </c>
+      <c r="D61">
+        <v>0.62074743499999996</v>
+      </c>
+      <c r="E61">
+        <v>50</v>
+      </c>
+      <c r="F61">
+        <v>0.76205189100000004</v>
+      </c>
+      <c r="G61">
+        <v>29</v>
+      </c>
+      <c r="H61">
+        <v>0.31674299900000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62">
+        <v>244</v>
+      </c>
+      <c r="D62">
+        <v>0.76612099300000003</v>
+      </c>
+      <c r="E62">
+        <v>50</v>
+      </c>
+      <c r="F62">
+        <v>0.76205189100000004</v>
+      </c>
+      <c r="G62">
+        <v>28</v>
+      </c>
+      <c r="H62">
+        <v>0.41916007799999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63">
+        <v>244</v>
+      </c>
+      <c r="D63">
+        <v>0.76612099300000003</v>
+      </c>
+      <c r="E63">
+        <v>50</v>
+      </c>
+      <c r="F63">
+        <v>0.76205189100000004</v>
+      </c>
+      <c r="G63">
+        <v>27</v>
+      </c>
+      <c r="H63">
+        <v>0.54037049800000003</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>251</v>
+      </c>
+      <c r="D64">
+        <v>0.45</v>
+      </c>
+      <c r="E64">
+        <v>81</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>54</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>245</v>
+      </c>
+      <c r="D65">
+        <v>0.72</v>
+      </c>
+      <c r="E65">
+        <v>80</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>53</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>246</v>
+      </c>
+      <c r="D66">
+        <v>0.67</v>
+      </c>
+      <c r="E66">
+        <v>82</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>53</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>275</v>
+      </c>
+      <c r="D67">
+        <v>0.02</v>
+      </c>
+      <c r="E67">
+        <v>64</v>
+      </c>
+      <c r="F67">
+        <v>0.03</v>
+      </c>
+      <c r="G67">
+        <v>32</v>
+      </c>
+      <c r="H67">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>262</v>
+      </c>
+      <c r="D68">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E68">
+        <v>61</v>
+      </c>
+      <c r="F68">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G68">
+        <v>33</v>
+      </c>
+      <c r="H68">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>281</v>
+      </c>
+      <c r="D69">
+        <v>0.01</v>
+      </c>
+      <c r="E69">
+        <v>76</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>42</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>237</v>
+      </c>
+      <c r="D70">
+        <v>0.87</v>
+      </c>
+      <c r="E70">
+        <v>72</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>43</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="D72" s="23">
+        <v>0.99</v>
+      </c>
+      <c r="E72" s="24">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73">
+        <v>0.51481169800000004</v>
+      </c>
+      <c r="D73">
+        <v>0.55217545499999998</v>
+      </c>
+      <c r="E73" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74">
+        <v>0.116420886</v>
+      </c>
+      <c r="D74">
+        <v>0.55217545499999998</v>
+      </c>
+      <c r="E74" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75">
+        <v>0.116420886</v>
+      </c>
+      <c r="D75">
+        <v>0.11338269500000001</v>
+      </c>
+      <c r="E75" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>0.81</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <v>0.48</v>
+      </c>
+      <c r="D77">
+        <v>0.06</v>
+      </c>
+      <c r="E77">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>0.22</v>
+      </c>
+      <c r="D78">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E78" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>0.41</v>
+      </c>
+      <c r="D79">
+        <v>0.88</v>
+      </c>
+      <c r="E79" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>0.47</v>
+      </c>
+      <c r="D80">
+        <v>0.24</v>
+      </c>
+      <c r="E80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>0.52</v>
+      </c>
+      <c r="D81">
+        <v>0.5</v>
+      </c>
+      <c r="E81" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A85" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25">
+        <v>0.99</v>
+      </c>
+      <c r="F86" s="25"/>
+      <c r="G86" s="26">
+        <v>0.995</v>
+      </c>
+      <c r="H86" s="26"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" t="s">
+        <v>30</v>
+      </c>
+      <c r="F87" t="s">
+        <v>31</v>
+      </c>
+      <c r="G87" t="s">
+        <v>30</v>
+      </c>
+      <c r="H87" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88">
+        <v>241</v>
+      </c>
+      <c r="E88">
+        <v>48</v>
+      </c>
+      <c r="G88">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89">
+        <v>248</v>
+      </c>
+      <c r="D89">
+        <v>0.62381905800000004</v>
+      </c>
+      <c r="E89">
+        <v>52</v>
+      </c>
+      <c r="F89">
+        <v>0.57795099599999999</v>
+      </c>
+      <c r="G89">
+        <v>28</v>
+      </c>
+      <c r="H89">
+        <v>0.43197648199999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90">
+        <v>248</v>
+      </c>
+      <c r="D90">
+        <v>0.62381905840876772</v>
+      </c>
+      <c r="E90">
+        <v>56</v>
+      </c>
+      <c r="F90">
+        <v>0.26516665432252895</v>
+      </c>
+      <c r="G90">
+        <v>28</v>
+      </c>
+      <c r="H90">
+        <v>0.43197648151580403</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91">
+        <v>258</v>
+      </c>
+      <c r="D91">
+        <v>0.25366170399999999</v>
+      </c>
+      <c r="E91">
+        <v>58</v>
+      </c>
+      <c r="F91">
+        <v>0.16507680599999999</v>
+      </c>
+      <c r="G91">
+        <v>33</v>
+      </c>
+      <c r="H91">
+        <v>8.3594418000000004E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92">
+        <v>285</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>87</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>57</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <v>261</v>
+      </c>
+      <c r="D93">
+        <v>0.18</v>
+      </c>
+      <c r="E93">
+        <v>82</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>57</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94">
+        <v>277</v>
+      </c>
+      <c r="D94">
+        <v>0.02</v>
+      </c>
+      <c r="E94">
+        <v>88</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>63</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="C95">
+        <v>298</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>71</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>39</v>
+      </c>
+      <c r="H95">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>273</v>
+      </c>
+      <c r="D96">
+        <v>0.04</v>
+      </c>
+      <c r="E96">
+        <v>68</v>
+      </c>
+      <c r="F96">
+        <v>0.01</v>
+      </c>
+      <c r="G96">
+        <v>44</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>289</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>79</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>48</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98">
+        <v>242</v>
+      </c>
+      <c r="D98">
+        <v>0.93</v>
+      </c>
+      <c r="E98">
+        <v>61</v>
+      </c>
+      <c r="F98">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G98">
+        <v>33</v>
+      </c>
+      <c r="H98">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="D100" s="23">
+        <v>0.99</v>
+      </c>
+      <c r="E100" s="24">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101">
+        <v>0.359587669</v>
+      </c>
+      <c r="D101" t="s">
+        <v>27</v>
+      </c>
+      <c r="E101" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102">
+        <v>0.81547371090050413</v>
+      </c>
+      <c r="D102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>34</v>
+      </c>
+      <c r="C103">
+        <v>0.81062979599999996</v>
+      </c>
+      <c r="D103" t="s">
+        <v>27</v>
+      </c>
+      <c r="E103" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>0.59</v>
+      </c>
+      <c r="D104">
+        <v>0.3</v>
+      </c>
+      <c r="E104">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105">
+        <v>0.74</v>
+      </c>
+      <c r="D105">
+        <v>0.72</v>
+      </c>
+      <c r="E105" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>0.79</v>
+      </c>
+      <c r="D106">
+        <v>0.6</v>
+      </c>
+      <c r="E106">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>0.39</v>
+      </c>
+      <c r="D107">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="E107" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>0.49</v>
+      </c>
+      <c r="D108" t="s">
+        <v>27</v>
+      </c>
+      <c r="E108" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>0.37</v>
+      </c>
+      <c r="D109">
+        <v>0.78</v>
+      </c>
+      <c r="E109" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" s="25">
+        <v>0.95</v>
+      </c>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25">
+        <v>0.99</v>
+      </c>
+      <c r="F114" s="25"/>
+      <c r="G114" s="26">
+        <v>0.995</v>
+      </c>
+      <c r="H114" s="26"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>30</v>
+      </c>
+      <c r="D115" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" t="s">
+        <v>30</v>
+      </c>
+      <c r="H115" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116">
+        <v>430</v>
+      </c>
+      <c r="E116">
+        <v>86</v>
+      </c>
+      <c r="G116">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B117" t="s">
+        <v>32</v>
+      </c>
+      <c r="C117">
+        <v>442</v>
+      </c>
+      <c r="D117">
+        <v>0.55110011069360265</v>
+      </c>
+      <c r="E117">
+        <v>94</v>
+      </c>
+      <c r="F117">
+        <v>0.39177939898649916</v>
+      </c>
+      <c r="G117">
+        <v>52</v>
+      </c>
+      <c r="H117">
+        <v>0.18236853408949238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118">
+        <v>450</v>
+      </c>
+      <c r="D118">
+        <v>0.32344481536412506</v>
+      </c>
+      <c r="E118">
+        <v>94</v>
+      </c>
+      <c r="F118">
+        <v>0.39177939898649916</v>
+      </c>
+      <c r="G118">
+        <v>48</v>
+      </c>
+      <c r="H118">
+        <v>0.45211317929455752</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B119" t="s">
+        <v>34</v>
+      </c>
+      <c r="C119">
+        <v>464</v>
+      </c>
+      <c r="D119">
+        <v>9.5532341424971579E-2</v>
+      </c>
+      <c r="E119">
+        <v>101</v>
+      </c>
+      <c r="F119">
+        <v>0.11314803572592336</v>
+      </c>
+      <c r="G119">
+        <v>54</v>
+      </c>
+      <c r="H119">
+        <v>0.10552714724718404</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120">
+        <v>404</v>
+      </c>
+      <c r="D120">
+        <v>0.2</v>
+      </c>
+      <c r="E120">
+        <v>134</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>96</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>4</v>
+      </c>
+      <c r="C121">
+        <v>415</v>
+      </c>
+      <c r="D121">
+        <v>0.46</v>
+      </c>
+      <c r="E121">
+        <v>127</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="G121">
+        <v>89</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122">
+        <v>424</v>
+      </c>
+      <c r="D122">
+        <v>0.77</v>
+      </c>
+      <c r="E122">
+        <v>136</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>90</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C123">
+        <v>453</v>
+      </c>
+      <c r="D123">
+        <v>0.26</v>
+      </c>
+      <c r="E123">
+        <v>101</v>
+      </c>
+      <c r="F123">
+        <v>0.11</v>
+      </c>
+      <c r="G123">
+        <v>52</v>
+      </c>
+      <c r="H123">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <v>446</v>
+      </c>
+      <c r="D124">
+        <v>0.43</v>
+      </c>
+      <c r="E124">
+        <v>99</v>
+      </c>
+      <c r="F124">
+        <v>0.17</v>
+      </c>
+      <c r="G124">
+        <v>49</v>
+      </c>
+      <c r="H124">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126">
+        <v>470</v>
+      </c>
+      <c r="D126">
+        <v>0.05</v>
+      </c>
+      <c r="E126">
+        <v>117</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>62</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="D128" s="23">
+        <v>0.99</v>
+      </c>
+      <c r="E128" s="24">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" t="s">
+        <v>32</v>
+      </c>
+      <c r="C129">
+        <v>1.9284213461172817E-2</v>
+      </c>
+      <c r="D129">
+        <v>4.138540289418402E-3</v>
+      </c>
+      <c r="E129">
+        <v>4.1884974491982252E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130">
+        <v>0.12078656189910575</v>
+      </c>
+      <c r="D130">
+        <v>2.3655285393866632E-2</v>
+      </c>
+      <c r="E130">
+        <v>2.2322478588323591E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B131" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131">
+        <v>0.22325816075873339</v>
+      </c>
+      <c r="D131">
+        <v>1.3331515558040463E-3</v>
+      </c>
+      <c r="E131">
+        <v>4.6099449719433361E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B132" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132">
+        <v>0.04</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B133" t="s">
+        <v>4</v>
+      </c>
+      <c r="C133">
+        <v>0.37</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134">
+        <v>0.18</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>0.04</v>
+      </c>
+      <c r="E135">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136">
+        <v>0.01</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="C114:D114"/>
+    <mergeCell ref="E114:F114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="28" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="26" max="1048575" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>
--- a/Results/seminar_results.xlsx
+++ b/Results/seminar_results.xlsx
@@ -3243,7 +3243,7 @@
   <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:E38"/>
+      <selection activeCell="D38" sqref="A1:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3440,10 +3440,18 @@
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="B11" s="2">
+        <v>454</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -3636,10 +3644,18 @@
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
+      <c r="B24" s="2">
+        <v>105</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
@@ -3842,10 +3858,18 @@
       <c r="A37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
+      <c r="B37" s="2">
+        <v>51</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
@@ -4604,7 +4628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T59"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="A34" sqref="A34:H59"/>
     </sheetView>
   </sheetViews>
@@ -5021,10 +5045,18 @@
       <c r="P11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
+      <c r="Q11" s="2">
+        <v>454</v>
+      </c>
+      <c r="R11" s="6">
+        <v>0.24</v>
+      </c>
+      <c r="S11" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="T11" s="6">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -5076,27 +5108,27 @@
       </c>
       <c r="C13">
         <f t="shared" ref="C13:D13" si="21">Q11</f>
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:F13" si="22">Q24</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F13" s="16">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G13">
         <f t="shared" ref="G13:H13" si="23">Q37</f>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H13" s="16">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -5432,10 +5464,18 @@
       <c r="P24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
+      <c r="Q24" s="2">
+        <v>105</v>
+      </c>
+      <c r="R24" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S24" s="6">
+        <v>0</v>
+      </c>
+      <c r="T24" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
@@ -5443,7 +5483,7 @@
       </c>
       <c r="C25" s="16">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D25" s="16">
         <f t="shared" si="28"/>
@@ -5703,10 +5743,18 @@
       <c r="P37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
+      <c r="Q37" s="2">
+        <v>51</v>
+      </c>
+      <c r="R37" s="6">
+        <v>0.23</v>
+      </c>
+      <c r="S37" s="6">
+        <v>0</v>
+      </c>
+      <c r="T37" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
@@ -5912,22 +5960,22 @@
         <v>8</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
@@ -6084,7 +6132,7 @@
         <v>8</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -6121,8 +6169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8291,22 +8339,22 @@
         <v>8</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
@@ -8463,7 +8511,7 @@
         <v>8</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D137">
         <v>0</v>
